--- a/Misc Stuff/Library Research/ADCs/AXX131X0X/Register Maps.xlsx
+++ b/Misc Stuff/Library Research/ADCs/AXX131X0X/Register Maps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Danakil_KiCad_DB\Misc Stuff\Library Research\ADCs\AXX131X0X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147DF9B9-5465-41B5-ADB5-411C6C10F804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FB6F80A-3B58-4D00-B614-F20B8A23E906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bits" sheetId="1" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8068" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8533" uniqueCount="466">
   <si>
     <t>Index</t>
   </si>
@@ -1436,6 +1436,15 @@
   <si>
     <t>0x0001</t>
   </si>
+  <si>
+    <t>0x3</t>
+  </si>
+  <si>
+    <t>DO_DRDY2</t>
+  </si>
+  <si>
+    <t>0b00000</t>
+  </si>
 </sst>
 </file>
 
@@ -1514,7 +1523,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1539,9 +1548,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -58022,10 +58030,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6BB9673-ED0C-4B53-8B4B-040168BEB427}">
-  <dimension ref="A1:F126"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="K110" sqref="K110"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -58125,7 +58133,7 @@
       <c r="C5" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" t="s">
         <v>298</v>
       </c>
       <c r="E5">
@@ -58145,7 +58153,7 @@
       <c r="C6" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" t="s">
         <v>298</v>
       </c>
       <c r="E6">
@@ -58165,7 +58173,7 @@
       <c r="C7" t="s">
         <v>307</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" t="s">
         <v>298</v>
       </c>
       <c r="E7">
@@ -58185,7 +58193,7 @@
       <c r="C8" t="s">
         <v>308</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" t="s">
         <v>298</v>
       </c>
       <c r="E8">
@@ -58205,7 +58213,7 @@
       <c r="C9" t="s">
         <v>309</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" t="s">
         <v>298</v>
       </c>
       <c r="E9">
@@ -58225,7 +58233,7 @@
       <c r="C10" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>299</v>
       </c>
       <c r="E10">
@@ -58245,7 +58253,7 @@
       <c r="C11" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" t="s">
         <v>300</v>
       </c>
       <c r="E11">
@@ -58316,2000 +58324,1944 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="12" t="s">
+      <c r="A15" t="s">
         <v>294</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" t="s">
         <v>234</v>
       </c>
-      <c r="D15" s="12" t="s">
+      <c r="D15" t="s">
         <v>301</v>
       </c>
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="12" t="s">
+      <c r="A16" t="s">
         <v>294</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" t="s">
         <v>229</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" t="s">
         <v>302</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" t="s">
         <v>298</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16">
         <v>2</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="12" t="s">
+      <c r="A17" t="s">
         <v>294</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" t="s">
         <v>229</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" t="s">
         <v>303</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" t="s">
         <v>298</v>
       </c>
-      <c r="E17" s="12">
+      <c r="E17">
         <v>3</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="12" t="s">
+      <c r="A18" t="s">
         <v>294</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" t="s">
         <v>229</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" t="s">
         <v>27</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" t="s">
         <v>298</v>
       </c>
-      <c r="E18" s="12">
+      <c r="E18">
         <v>4</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="12" t="s">
+      <c r="A19" t="s">
         <v>294</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" t="s">
         <v>229</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" t="s">
         <v>28</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D19" t="s">
         <v>299</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E19">
         <v>5</v>
       </c>
-      <c r="F19" s="12">
+      <c r="F19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="A20" t="s">
         <v>294</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" t="s">
         <v>293</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" t="s">
         <v>300</v>
       </c>
-      <c r="E20" s="12">
+      <c r="E20">
         <v>6</v>
       </c>
-      <c r="F20" s="12">
+      <c r="F20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" t="s">
         <v>294</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" t="s">
         <v>229</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" t="s">
         <v>234</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" t="s">
         <v>320</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21">
         <v>8</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>294</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" t="s">
         <v>39</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" t="s">
         <v>299</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22">
         <v>11</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>294</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" t="s">
         <v>229</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" t="s">
         <v>301</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23">
         <v>12</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23">
         <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" t="s">
         <v>294</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" t="s">
         <v>322</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" t="s">
         <v>298</v>
       </c>
-      <c r="E24" s="12">
-        <v>14</v>
-      </c>
-      <c r="F24" s="12">
+      <c r="E24">
+        <v>14</v>
+      </c>
+      <c r="F24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C25" s="13" t="s">
+      <c r="C25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E25" s="11">
         <v>15</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F25" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" t="s">
         <v>295</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" t="s">
         <v>230</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" t="s">
         <v>234</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" t="s">
         <v>460</v>
       </c>
-      <c r="E26" s="12">
-        <v>0</v>
-      </c>
-      <c r="F26" s="12">
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
         <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="A27" t="s">
         <v>295</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" t="s">
         <v>230</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" t="s">
         <v>299</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27">
         <v>6</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" t="s">
         <v>230</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" t="s">
         <v>45</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" t="s">
         <v>299</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28">
         <v>7</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="A29" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" t="s">
         <v>230</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" t="s">
         <v>234</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" t="s">
         <v>320</v>
       </c>
-      <c r="E29" s="12">
+      <c r="E29">
         <v>8</v>
       </c>
-      <c r="F29" s="12">
+      <c r="F29">
         <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="12" t="s">
+      <c r="A30" t="s">
         <v>295</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" t="s">
         <v>230</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" t="s">
         <v>323</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D30" t="s">
         <v>324</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30">
         <v>11</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30">
         <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B31" s="13" t="s">
+      <c r="B31" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C31" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E31" s="13">
-        <v>14</v>
-      </c>
-      <c r="F31" s="13">
+      <c r="E31" s="11">
+        <v>14</v>
+      </c>
+      <c r="F31" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+      <c r="A32" t="s">
         <v>296</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" t="s">
         <v>232</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" t="s">
         <v>234</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" t="s">
         <v>298</v>
       </c>
-      <c r="E32" s="12">
-        <v>0</v>
-      </c>
-      <c r="F32" s="12">
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+      <c r="A33" t="s">
         <v>296</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" t="s">
         <v>232</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" t="s">
         <v>329</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" t="s">
         <v>320</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33">
         <v>9</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+      <c r="A34" t="s">
         <v>296</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" t="s">
         <v>232</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" t="s">
         <v>234</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" t="s">
         <v>298</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34">
         <v>12</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B35" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C35" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="D35" s="13" t="s">
+      <c r="D35" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E35" s="13">
-        <v>13</v>
-      </c>
-      <c r="F35" s="13">
+      <c r="E35" s="11">
+        <v>13</v>
+      </c>
+      <c r="F35" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
+      <c r="A36" s="12" t="s">
         <v>297</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C36" s="14" t="s">
+      <c r="C36" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D36" s="14" t="s">
+      <c r="D36" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E36" s="14">
-        <v>0</v>
-      </c>
-      <c r="F36" s="14">
+      <c r="E36" s="12">
+        <v>0</v>
+      </c>
+      <c r="F36" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="A37" t="s">
         <v>331</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" t="s">
         <v>235</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" t="s">
         <v>234</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" t="s">
         <v>320</v>
       </c>
-      <c r="E37" s="12">
-        <v>0</v>
-      </c>
-      <c r="F37" s="12">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
         <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
+      <c r="A38" t="s">
         <v>331</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" t="s">
         <v>235</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" t="s">
         <v>341</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" t="s">
         <v>342</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38">
         <v>3</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38">
         <v>4</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+      <c r="A39" t="s">
         <v>331</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" t="s">
         <v>235</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" t="s">
         <v>62</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" t="s">
         <v>298</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39">
         <v>7</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+      <c r="A40" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" t="s">
         <v>235</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" t="s">
         <v>63</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" t="s">
         <v>298</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40">
         <v>8</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="12" t="s">
+      <c r="A41" t="s">
         <v>331</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B41" t="s">
         <v>235</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C41" t="s">
         <v>343</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D41" t="s">
         <v>320</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41">
         <v>9</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41">
         <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+      <c r="A42" t="s">
         <v>331</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" t="s">
         <v>235</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" t="s">
         <v>344</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" t="s">
         <v>320</v>
       </c>
-      <c r="E42" s="12">
+      <c r="E42">
         <v>12</v>
       </c>
-      <c r="F42" s="12">
+      <c r="F42">
         <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C43" s="13" t="s">
+      <c r="C43" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E43" s="11">
         <v>15</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F43" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
+      <c r="A44" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C44" s="14" t="s">
+      <c r="C44" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D44" s="14" t="s">
+      <c r="D44" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E44" s="14">
-        <v>0</v>
-      </c>
-      <c r="F44" s="14">
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+      <c r="A45" t="s">
         <v>333</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" t="s">
         <v>237</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" t="s">
         <v>347</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" t="s">
         <v>286</v>
       </c>
-      <c r="E45" s="12">
-        <v>0</v>
-      </c>
-      <c r="F45" s="12">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B46" s="13" t="s">
+      <c r="B46" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C46" s="13" t="s">
+      <c r="C46" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E46" s="11">
         <v>8</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+      <c r="A47" t="s">
         <v>334</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" t="s">
         <v>348</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" t="s">
         <v>349</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" t="s">
         <v>350</v>
       </c>
-      <c r="E47" s="12">
-        <v>0</v>
-      </c>
-      <c r="F47" s="12">
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
         <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
+      <c r="A48" t="s">
         <v>334</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" t="s">
         <v>348</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" t="s">
         <v>234</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" t="s">
         <v>320</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48">
         <v>10</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="12" t="s">
+      <c r="A49" t="s">
         <v>334</v>
       </c>
-      <c r="B49" s="12" t="s">
+      <c r="B49" t="s">
         <v>348</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" t="s">
         <v>102</v>
       </c>
-      <c r="D49" s="12" t="s">
+      <c r="D49" t="s">
         <v>298</v>
       </c>
-      <c r="E49" s="12">
-        <v>13</v>
-      </c>
-      <c r="F49" s="12">
+      <c r="E49">
+        <v>13</v>
+      </c>
+      <c r="F49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B50" s="13" t="s">
+      <c r="B50" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C50" s="13" t="s">
+      <c r="C50" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D50" s="13" t="s">
+      <c r="D50" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E50" s="13">
-        <v>14</v>
-      </c>
-      <c r="F50" s="13">
+      <c r="E50" s="11">
+        <v>14</v>
+      </c>
+      <c r="F50" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C51" s="14" t="s">
+      <c r="C51" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E51" s="14">
-        <v>0</v>
-      </c>
-      <c r="F51" s="14">
+      <c r="E51" s="12">
+        <v>0</v>
+      </c>
+      <c r="F51" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
+      <c r="A52" t="s">
         <v>354</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" t="s">
         <v>241</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" t="s">
         <v>355</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" t="s">
         <v>286</v>
       </c>
-      <c r="E52" s="12">
-        <v>0</v>
-      </c>
-      <c r="F52" s="12">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B53" s="13" t="s">
+      <c r="B53" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C53" s="13" t="s">
+      <c r="C53" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D53" s="13" t="s">
+      <c r="D53" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E53" s="13">
+      <c r="E53" s="11">
         <v>8</v>
       </c>
-      <c r="F53" s="13">
+      <c r="F53" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="14" t="s">
+      <c r="A54" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B54" s="14" t="s">
+      <c r="B54" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C54" s="14" t="s">
+      <c r="C54" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D54" s="14" t="s">
+      <c r="D54" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E54" s="14">
-        <v>0</v>
-      </c>
-      <c r="F54" s="14">
+      <c r="E54" s="12">
+        <v>0</v>
+      </c>
+      <c r="F54" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
+      <c r="A55" t="s">
         <v>357</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" t="s">
         <v>243</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" t="s">
         <v>360</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" t="s">
         <v>286</v>
       </c>
-      <c r="E55" s="12">
-        <v>0</v>
-      </c>
-      <c r="F55" s="12">
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="B56" s="13" t="s">
+      <c r="B56" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C56" s="13" t="s">
+      <c r="C56" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D56" s="13" t="s">
+      <c r="D56" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E56" s="11">
         <v>8</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F56" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="12" t="s">
+      <c r="A57" t="s">
         <v>368</v>
       </c>
-      <c r="B57" s="12" t="s">
+      <c r="B57" t="s">
         <v>361</v>
       </c>
-      <c r="C57" s="12" t="s">
+      <c r="C57" t="s">
         <v>362</v>
       </c>
-      <c r="D57" s="12" t="s">
+      <c r="D57" t="s">
         <v>350</v>
       </c>
-      <c r="E57" s="12">
-        <v>0</v>
-      </c>
-      <c r="F57" s="12">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
         <v>10</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+      <c r="A58" t="s">
         <v>368</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" t="s">
         <v>361</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" t="s">
         <v>320</v>
       </c>
-      <c r="E58" s="12">
+      <c r="E58">
         <v>10</v>
       </c>
-      <c r="F58" s="12">
+      <c r="F58">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
+      <c r="A59" t="s">
         <v>368</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" t="s">
         <v>361</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" t="s">
         <v>115</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" t="s">
         <v>298</v>
       </c>
-      <c r="E59" s="12">
-        <v>13</v>
-      </c>
-      <c r="F59" s="12">
+      <c r="E59">
+        <v>13</v>
+      </c>
+      <c r="F59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" t="s">
         <v>361</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D60" s="13" t="s">
+      <c r="D60" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E60" s="13">
-        <v>14</v>
-      </c>
-      <c r="F60" s="13">
+      <c r="E60" s="11">
+        <v>14</v>
+      </c>
+      <c r="F60" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="14" t="s">
+      <c r="A61" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D61" s="14" t="s">
+      <c r="D61" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E61" s="14">
-        <v>0</v>
-      </c>
-      <c r="F61" s="14">
+      <c r="E61" s="12">
+        <v>0</v>
+      </c>
+      <c r="F61" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
+      <c r="A62" t="s">
         <v>335</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" t="s">
         <v>246</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" t="s">
         <v>365</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" t="s">
         <v>286</v>
       </c>
-      <c r="E62" s="12">
-        <v>0</v>
-      </c>
-      <c r="F62" s="12">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
         <v>8</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B63" s="13" t="s">
+      <c r="B63" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C63" s="13" t="s">
+      <c r="C63" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D63" s="13" t="s">
+      <c r="D63" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E63" s="11">
         <v>8</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F63" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="14" t="s">
+      <c r="A64" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C64" s="14" t="s">
+      <c r="C64" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E64" s="14">
-        <v>0</v>
-      </c>
-      <c r="F64" s="14">
+      <c r="E64" s="12">
+        <v>0</v>
+      </c>
+      <c r="F64" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="12" t="s">
+      <c r="A65" t="s">
         <v>370</v>
       </c>
-      <c r="B65" s="12" t="s">
+      <c r="B65" t="s">
         <v>248</v>
       </c>
-      <c r="C65" s="12" t="s">
+      <c r="C65" t="s">
         <v>367</v>
       </c>
-      <c r="D65" s="12" t="s">
+      <c r="D65" t="s">
         <v>286</v>
       </c>
-      <c r="E65" s="12">
-        <v>0</v>
-      </c>
-      <c r="F65" s="12">
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
         <v>8</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B66" s="13" t="s">
+      <c r="B66" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C66" s="13" t="s">
+      <c r="C66" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E66" s="11">
         <v>8</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F66" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="14" t="s">
+      <c r="A67" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="11" t="s">
         <v>456</v>
       </c>
-      <c r="E67" s="13">
-        <v>0</v>
-      </c>
-      <c r="F67" s="13">
+      <c r="E67" s="11">
+        <v>0</v>
+      </c>
+      <c r="F67" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="14" t="s">
+      <c r="A68" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="C68" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D68" s="14" t="s">
+      <c r="D68" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E68" s="14">
-        <v>0</v>
-      </c>
-      <c r="F68" s="14">
+      <c r="E68" s="12">
+        <v>0</v>
+      </c>
+      <c r="F68" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="14" t="s">
+      <c r="A69" s="12" t="s">
         <v>415</v>
       </c>
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C69" s="14" t="s">
+      <c r="C69" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D69" s="14" t="s">
+      <c r="D69" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E69" s="14">
-        <v>0</v>
-      </c>
-      <c r="F69" s="14">
+      <c r="E69" s="12">
+        <v>0</v>
+      </c>
+      <c r="F69" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="14" t="s">
+      <c r="A70" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="B70" s="14" t="s">
+      <c r="B70" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C70" s="14" t="s">
+      <c r="C70" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D70" s="14" t="s">
+      <c r="D70" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E70" s="14">
-        <v>0</v>
-      </c>
-      <c r="F70" s="14">
+      <c r="E70" s="12">
+        <v>0</v>
+      </c>
+      <c r="F70" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="14" t="s">
+      <c r="A71" s="12" t="s">
         <v>417</v>
       </c>
-      <c r="B71" s="14" t="s">
+      <c r="B71" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C71" s="14" t="s">
+      <c r="C71" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D71" s="14" t="s">
+      <c r="D71" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E71" s="14">
-        <v>0</v>
-      </c>
-      <c r="F71" s="14">
+      <c r="E71" s="12">
+        <v>0</v>
+      </c>
+      <c r="F71" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E72" s="14">
-        <v>0</v>
-      </c>
-      <c r="F72" s="14">
+      <c r="E72" s="12">
+        <v>0</v>
+      </c>
+      <c r="F72" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C73" s="14" t="s">
+      <c r="C73" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D73" s="14" t="s">
+      <c r="D73" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E73" s="14">
-        <v>0</v>
-      </c>
-      <c r="F73" s="14">
+      <c r="E73" s="12">
+        <v>0</v>
+      </c>
+      <c r="F73" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C74" s="14" t="s">
+      <c r="C74" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D74" s="14" t="s">
+      <c r="D74" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E74" s="14">
-        <v>0</v>
-      </c>
-      <c r="F74" s="14">
+      <c r="E74" s="12">
+        <v>0</v>
+      </c>
+      <c r="F74" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E75" s="14">
-        <v>0</v>
-      </c>
-      <c r="F75" s="14">
+      <c r="E75" s="12">
+        <v>0</v>
+      </c>
+      <c r="F75" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C76" s="14" t="s">
+      <c r="C76" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D76" s="14" t="s">
+      <c r="D76" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E76" s="14">
-        <v>0</v>
-      </c>
-      <c r="F76" s="14">
+      <c r="E76" s="12">
+        <v>0</v>
+      </c>
+      <c r="F76" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C77" s="14" t="s">
+      <c r="C77" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="14" t="s">
+      <c r="D77" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E77" s="14">
-        <v>0</v>
-      </c>
-      <c r="F77" s="14">
+      <c r="E77" s="12">
+        <v>0</v>
+      </c>
+      <c r="F77" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C78" s="14" t="s">
+      <c r="C78" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D78" s="14" t="s">
+      <c r="D78" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E78" s="14">
-        <v>0</v>
-      </c>
-      <c r="F78" s="14">
+      <c r="E78" s="12">
+        <v>0</v>
+      </c>
+      <c r="F78" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="12" t="s">
+      <c r="A79" t="s">
         <v>427</v>
       </c>
-      <c r="B79" s="14" t="s">
+      <c r="B79" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="14" t="s">
+      <c r="C79" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D79" s="14" t="s">
+      <c r="D79" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E79" s="14">
-        <v>0</v>
-      </c>
-      <c r="F79" s="14">
+      <c r="E79" s="12">
+        <v>0</v>
+      </c>
+      <c r="F79" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="E80" s="12">
+        <v>0</v>
+      </c>
+      <c r="F80" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E81" s="12">
+        <v>0</v>
+      </c>
+      <c r="F81" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E82" s="11">
+        <v>0</v>
+      </c>
+      <c r="F82" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0</v>
+      </c>
+      <c r="F83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E84" s="12">
+        <v>0</v>
+      </c>
+      <c r="F84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E85" s="12">
+        <v>0</v>
+      </c>
+      <c r="F85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E86" s="12">
+        <v>0</v>
+      </c>
+      <c r="F86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E87" s="12">
+        <v>0</v>
+      </c>
+      <c r="F87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E88" s="12">
+        <v>0</v>
+      </c>
+      <c r="F88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E89" s="12">
+        <v>0</v>
+      </c>
+      <c r="F89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E90" s="12">
+        <v>0</v>
+      </c>
+      <c r="F90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E91" s="12">
+        <v>0</v>
+      </c>
+      <c r="F91" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E92" s="12">
+        <v>0</v>
+      </c>
+      <c r="F92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E93" s="12">
+        <v>0</v>
+      </c>
+      <c r="F93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E94" s="12">
+        <v>0</v>
+      </c>
+      <c r="F94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="E95" s="12">
+        <v>0</v>
+      </c>
+      <c r="F95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0</v>
+      </c>
+      <c r="F96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E97" s="11">
+        <v>0</v>
+      </c>
+      <c r="F97" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E98" s="12">
+        <v>0</v>
+      </c>
+      <c r="F98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0</v>
+      </c>
+      <c r="F99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E100" s="12">
+        <v>0</v>
+      </c>
+      <c r="F100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0</v>
+      </c>
+      <c r="F101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0</v>
+      </c>
+      <c r="F102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E103" s="12">
+        <v>0</v>
+      </c>
+      <c r="F103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E104" s="12">
+        <v>0</v>
+      </c>
+      <c r="F104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E105" s="12">
+        <v>0</v>
+      </c>
+      <c r="F105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E106" s="12">
+        <v>0</v>
+      </c>
+      <c r="F106" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0</v>
+      </c>
+      <c r="F107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0</v>
+      </c>
+      <c r="F108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0</v>
+      </c>
+      <c r="F109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B110" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C80" s="14" t="s">
+      <c r="C110" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="D80" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="E80" s="14">
-        <v>0</v>
-      </c>
-      <c r="F80" s="14">
+      <c r="D110" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0</v>
+      </c>
+      <c r="F110" s="12">
         <v>16</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="B81" s="14" t="s">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B111" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C81" s="14" t="s">
+      <c r="C111" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D81" s="14" t="s">
+      <c r="D111" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E81" s="14">
-        <v>0</v>
-      </c>
-      <c r="F81" s="14">
+      <c r="E111" s="12">
+        <v>0</v>
+      </c>
+      <c r="F111" s="12">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="E82" s="13">
-        <v>0</v>
-      </c>
-      <c r="F82" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="B83" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C83" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D83" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E83" s="14">
-        <v>0</v>
-      </c>
-      <c r="F83" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="B84" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C84" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D84" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E84" s="14">
-        <v>0</v>
-      </c>
-      <c r="F84" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="14" t="s">
-        <v>431</v>
-      </c>
-      <c r="B85" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D85" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E85" s="14">
-        <v>0</v>
-      </c>
-      <c r="F85" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="14" t="s">
-        <v>432</v>
-      </c>
-      <c r="B86" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D86" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E86" s="14">
-        <v>0</v>
-      </c>
-      <c r="F86" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="14" t="s">
-        <v>433</v>
-      </c>
-      <c r="B87" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D87" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E87" s="14">
-        <v>0</v>
-      </c>
-      <c r="F87" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="14" t="s">
-        <v>434</v>
-      </c>
-      <c r="B88" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E88" s="14">
-        <v>0</v>
-      </c>
-      <c r="F88" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="14" t="s">
-        <v>435</v>
-      </c>
-      <c r="B89" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C89" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D89" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E89" s="14">
-        <v>0</v>
-      </c>
-      <c r="F89" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="14" t="s">
-        <v>436</v>
-      </c>
-      <c r="B90" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C90" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D90" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E90" s="14">
-        <v>0</v>
-      </c>
-      <c r="F90" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="14" t="s">
-        <v>437</v>
-      </c>
-      <c r="B91" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C91" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D91" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E91" s="14">
-        <v>0</v>
-      </c>
-      <c r="F91" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="14" t="s">
-        <v>438</v>
-      </c>
-      <c r="B92" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C92" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D92" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E92" s="14">
-        <v>0</v>
-      </c>
-      <c r="F92" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="B93" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C93" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D93" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E93" s="14">
-        <v>0</v>
-      </c>
-      <c r="F93" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="14" t="s">
-        <v>440</v>
-      </c>
-      <c r="B94" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C94" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D94" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E94" s="14">
-        <v>0</v>
-      </c>
-      <c r="F94" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="14" t="s">
-        <v>441</v>
-      </c>
-      <c r="B95" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C95" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="D95" s="14" t="s">
-        <v>462</v>
-      </c>
-      <c r="E95" s="14">
-        <v>0</v>
-      </c>
-      <c r="F95" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="14" t="s">
-        <v>442</v>
-      </c>
-      <c r="B96" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C96" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D96" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E96" s="14">
-        <v>0</v>
-      </c>
-      <c r="F96" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="B97" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C97" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="E97" s="13">
-        <v>0</v>
-      </c>
-      <c r="F97" s="13">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="14" t="s">
-        <v>444</v>
-      </c>
-      <c r="B98" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C98" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D98" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E98" s="14">
-        <v>0</v>
-      </c>
-      <c r="F98" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="B99" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C99" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D99" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E99" s="14">
-        <v>0</v>
-      </c>
-      <c r="F99" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="14" t="s">
-        <v>446</v>
-      </c>
-      <c r="B100" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C100" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D100" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E100" s="14">
-        <v>0</v>
-      </c>
-      <c r="F100" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="14" t="s">
-        <v>447</v>
-      </c>
-      <c r="B101" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C101" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D101" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E101" s="14">
-        <v>0</v>
-      </c>
-      <c r="F101" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="14" t="s">
-        <v>448</v>
-      </c>
-      <c r="B102" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C102" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D102" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E102" s="14">
-        <v>0</v>
-      </c>
-      <c r="F102" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="14" t="s">
-        <v>449</v>
-      </c>
-      <c r="B103" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C103" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D103" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E103" s="14">
-        <v>0</v>
-      </c>
-      <c r="F103" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="B104" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C104" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D104" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E104" s="14">
-        <v>0</v>
-      </c>
-      <c r="F104" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="14" t="s">
-        <v>451</v>
-      </c>
-      <c r="B105" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C105" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D105" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E105" s="14">
-        <v>0</v>
-      </c>
-      <c r="F105" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="14" t="s">
-        <v>452</v>
-      </c>
-      <c r="B106" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C106" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D106" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E106" s="14">
-        <v>0</v>
-      </c>
-      <c r="F106" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="14" t="s">
-        <v>453</v>
-      </c>
-      <c r="B107" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C107" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D107" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E107" s="14">
-        <v>0</v>
-      </c>
-      <c r="F107" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="14" t="s">
-        <v>454</v>
-      </c>
-      <c r="B108" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C108" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D108" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E108" s="14">
-        <v>0</v>
-      </c>
-      <c r="F108" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="B109" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C109" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E109" s="14">
-        <v>0</v>
-      </c>
-      <c r="F109" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="B110" s="14" t="s">
-        <v>249</v>
-      </c>
-      <c r="C110" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="E110" s="14">
-        <v>0</v>
-      </c>
-      <c r="F110" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="B111" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="C111" s="14" t="s">
-        <v>234</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E111" s="14">
-        <v>0</v>
-      </c>
-      <c r="F111" s="14">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="12"/>
-      <c r="B120" s="12"/>
-      <c r="C120" s="12"/>
-      <c r="D120" s="12"/>
-      <c r="E120" s="12"/>
-      <c r="F120" s="12"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="12"/>
-      <c r="B121" s="12"/>
-      <c r="C121" s="12"/>
-      <c r="D121" s="12"/>
-      <c r="E121" s="12"/>
-      <c r="F121" s="12"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="12"/>
-      <c r="B122" s="12"/>
-      <c r="C122" s="12"/>
-      <c r="D122" s="12"/>
-      <c r="E122" s="12"/>
-      <c r="F122" s="12"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="12"/>
-      <c r="B123" s="12"/>
-      <c r="C123" s="12"/>
-      <c r="D123" s="12"/>
-      <c r="E123" s="12"/>
-      <c r="F123" s="12"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="12"/>
-      <c r="B124" s="12"/>
-      <c r="C124" s="12"/>
-      <c r="D124" s="12"/>
-      <c r="E124" s="12"/>
-      <c r="F124" s="12"/>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="12"/>
-      <c r="B125" s="12"/>
-      <c r="C125" s="12"/>
-      <c r="D125" s="12"/>
-      <c r="E125" s="12"/>
-      <c r="F125" s="12"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="12"/>
-      <c r="B126" s="12"/>
-      <c r="C126" s="12"/>
-      <c r="D126" s="12"/>
-      <c r="E126" s="12"/>
-      <c r="F126" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -60319,17 +60271,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F13F9BB-FE8F-4153-88EF-F50526C428EA}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -60340,7 +60292,7 @@
         <v>281</v>
       </c>
       <c r="C1" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s">
         <v>282</v>
@@ -60380,7 +60332,10 @@
         <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>288</v>
+        <v>304</v>
+      </c>
+      <c r="D3" t="s">
+        <v>463</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -60390,24 +60345,2384 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11">
         <v>8</v>
       </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" t="s">
+        <v>465</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" t="s">
+        <v>464</v>
+      </c>
+      <c r="D13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13">
+        <v>13</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>318</v>
+      </c>
+      <c r="D14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15" s="11">
+        <v>15</v>
+      </c>
+      <c r="F15" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C16" t="s">
+        <v>234</v>
+      </c>
+      <c r="D16" t="s">
+        <v>301</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" t="s">
+        <v>302</v>
+      </c>
+      <c r="D17" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" t="s">
+        <v>303</v>
+      </c>
+      <c r="D18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20" t="s">
+        <v>299</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" t="s">
+        <v>293</v>
+      </c>
+      <c r="D21" t="s">
+        <v>300</v>
+      </c>
+      <c r="E21">
+        <v>6</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
+      <c r="D22" t="s">
+        <v>320</v>
+      </c>
+      <c r="E22">
+        <v>8</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>299</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" t="s">
+        <v>321</v>
+      </c>
+      <c r="D24" t="s">
+        <v>301</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" t="s">
+        <v>322</v>
+      </c>
+      <c r="D25" t="s">
+        <v>298</v>
+      </c>
+      <c r="E25">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E26" s="11">
+        <v>15</v>
+      </c>
+      <c r="F26" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>295</v>
+      </c>
+      <c r="B27" t="s">
+        <v>230</v>
+      </c>
+      <c r="C27" t="s">
+        <v>234</v>
+      </c>
+      <c r="D27" t="s">
+        <v>465</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D28" t="s">
+        <v>299</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29">
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30">
+        <v>7</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" t="s">
+        <v>234</v>
+      </c>
+      <c r="D31" t="s">
+        <v>320</v>
+      </c>
+      <c r="E31">
+        <v>8</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" t="s">
+        <v>323</v>
+      </c>
+      <c r="D32" t="s">
+        <v>324</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E33" s="11">
+        <v>14</v>
+      </c>
+      <c r="F33" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>296</v>
+      </c>
+      <c r="B34" t="s">
+        <v>232</v>
+      </c>
+      <c r="C34" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" t="s">
+        <v>298</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>296</v>
+      </c>
+      <c r="B35" t="s">
+        <v>232</v>
+      </c>
+      <c r="C35" t="s">
+        <v>328</v>
+      </c>
+      <c r="D35" t="s">
+        <v>320</v>
+      </c>
+      <c r="E35">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36">
+        <v>8</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" t="s">
+        <v>329</v>
+      </c>
+      <c r="D37" t="s">
+        <v>320</v>
+      </c>
+      <c r="E37">
+        <v>9</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38">
+        <v>12</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E39" s="11">
+        <v>13</v>
+      </c>
+      <c r="F39" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A40" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E40" s="12">
+        <v>0</v>
+      </c>
+      <c r="F40" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>331</v>
+      </c>
+      <c r="B41" t="s">
+        <v>235</v>
+      </c>
+      <c r="C41" t="s">
+        <v>234</v>
+      </c>
+      <c r="D41" t="s">
+        <v>320</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>331</v>
+      </c>
+      <c r="B42" t="s">
+        <v>235</v>
+      </c>
+      <c r="C42" t="s">
+        <v>341</v>
+      </c>
+      <c r="D42" t="s">
+        <v>342</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>331</v>
+      </c>
+      <c r="B43" t="s">
+        <v>235</v>
+      </c>
+      <c r="C43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D43" t="s">
+        <v>298</v>
+      </c>
+      <c r="E43">
+        <v>7</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>331</v>
+      </c>
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" t="s">
+        <v>63</v>
+      </c>
+      <c r="D44" t="s">
+        <v>298</v>
+      </c>
+      <c r="E44">
+        <v>8</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" t="s">
+        <v>343</v>
+      </c>
+      <c r="D45" t="s">
+        <v>320</v>
+      </c>
+      <c r="E45">
+        <v>9</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" t="s">
+        <v>344</v>
+      </c>
+      <c r="D46" t="s">
+        <v>320</v>
+      </c>
+      <c r="E46">
+        <v>12</v>
+      </c>
+      <c r="F46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A47" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" s="11">
+        <v>15</v>
+      </c>
+      <c r="F47" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A48" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E48" s="12">
+        <v>0</v>
+      </c>
+      <c r="F48" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>333</v>
+      </c>
+      <c r="B49" t="s">
+        <v>237</v>
+      </c>
+      <c r="C49" t="s">
+        <v>347</v>
+      </c>
+      <c r="D49" t="s">
+        <v>286</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A50" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E50" s="11">
+        <v>8</v>
+      </c>
+      <c r="F50" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>334</v>
+      </c>
+      <c r="B51" t="s">
+        <v>348</v>
+      </c>
+      <c r="C51" t="s">
+        <v>349</v>
+      </c>
+      <c r="D51" t="s">
+        <v>350</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>334</v>
+      </c>
+      <c r="B52" t="s">
+        <v>348</v>
+      </c>
+      <c r="C52" t="s">
+        <v>234</v>
+      </c>
+      <c r="D52" t="s">
+        <v>320</v>
+      </c>
+      <c r="E52">
+        <v>10</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>334</v>
+      </c>
+      <c r="B53" t="s">
+        <v>348</v>
+      </c>
+      <c r="C53" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" t="s">
+        <v>298</v>
+      </c>
+      <c r="E53">
+        <v>13</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E54" s="11">
+        <v>14</v>
+      </c>
+      <c r="F54" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A55" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E55" s="12">
+        <v>0</v>
+      </c>
+      <c r="F55" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>354</v>
+      </c>
+      <c r="B56" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" t="s">
+        <v>355</v>
+      </c>
+      <c r="D56" t="s">
+        <v>286</v>
+      </c>
+      <c r="E56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A57" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D57" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E57" s="11">
+        <v>8</v>
+      </c>
+      <c r="F57" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B58" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E58" s="12">
+        <v>0</v>
+      </c>
+      <c r="F58" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" t="s">
+        <v>360</v>
+      </c>
+      <c r="D59" t="s">
+        <v>286</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D60" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E60" s="11">
+        <v>8</v>
+      </c>
+      <c r="F60" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>368</v>
+      </c>
+      <c r="B61" t="s">
+        <v>361</v>
+      </c>
+      <c r="C61" t="s">
+        <v>362</v>
+      </c>
+      <c r="D61" t="s">
+        <v>350</v>
+      </c>
+      <c r="E61">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>368</v>
+      </c>
+      <c r="B62" t="s">
+        <v>361</v>
+      </c>
+      <c r="C62" t="s">
+        <v>234</v>
+      </c>
+      <c r="D62" t="s">
+        <v>320</v>
+      </c>
+      <c r="E62">
+        <v>10</v>
+      </c>
+      <c r="F62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>368</v>
+      </c>
+      <c r="B63" t="s">
+        <v>361</v>
+      </c>
+      <c r="C63" t="s">
+        <v>115</v>
+      </c>
+      <c r="D63" t="s">
+        <v>298</v>
+      </c>
+      <c r="E63">
+        <v>13</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B64" t="s">
+        <v>361</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E64" s="11">
+        <v>14</v>
+      </c>
+      <c r="F64" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A65" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E65" s="12">
+        <v>0</v>
+      </c>
+      <c r="F65" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>335</v>
+      </c>
+      <c r="B66" t="s">
+        <v>246</v>
+      </c>
+      <c r="C66" t="s">
+        <v>365</v>
+      </c>
+      <c r="D66" t="s">
+        <v>286</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A67" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C67" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E67" s="11">
+        <v>8</v>
+      </c>
+      <c r="F67" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A68" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B68" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D68" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E68" s="12">
+        <v>0</v>
+      </c>
+      <c r="F68" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>370</v>
+      </c>
+      <c r="B69" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" t="s">
+        <v>367</v>
+      </c>
+      <c r="D69" t="s">
+        <v>286</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A70" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C70" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E70" s="11">
+        <v>8</v>
+      </c>
+      <c r="F70" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>413</v>
+      </c>
+      <c r="B71" t="s">
+        <v>371</v>
+      </c>
+      <c r="C71" t="s">
+        <v>377</v>
+      </c>
+      <c r="D71" t="s">
+        <v>350</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>413</v>
+      </c>
+      <c r="B72" t="s">
+        <v>371</v>
+      </c>
+      <c r="C72" t="s">
+        <v>234</v>
+      </c>
+      <c r="D72" t="s">
+        <v>320</v>
+      </c>
+      <c r="E72">
+        <v>10</v>
+      </c>
+      <c r="F72">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>413</v>
+      </c>
+      <c r="B73" t="s">
+        <v>371</v>
+      </c>
+      <c r="C73" t="s">
+        <v>153</v>
+      </c>
+      <c r="D73" t="s">
+        <v>298</v>
+      </c>
+      <c r="E73">
+        <v>13</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E74" s="11">
+        <v>14</v>
+      </c>
+      <c r="F74" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A75" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C75" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E75" s="12">
+        <v>0</v>
+      </c>
+      <c r="F75" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>415</v>
+      </c>
+      <c r="B76" t="s">
+        <v>252</v>
+      </c>
+      <c r="C76" t="s">
+        <v>380</v>
+      </c>
+      <c r="D76" t="s">
+        <v>286</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E77" s="11">
+        <v>8</v>
+      </c>
+      <c r="F77" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A78" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E78" s="12">
+        <v>0</v>
+      </c>
+      <c r="F78" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>417</v>
+      </c>
+      <c r="B79" t="s">
+        <v>254</v>
+      </c>
+      <c r="C79" t="s">
+        <v>382</v>
+      </c>
+      <c r="D79" t="s">
+        <v>286</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A80" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E80" s="11">
+        <v>8</v>
+      </c>
+      <c r="F80" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E81" s="11">
+        <v>0</v>
+      </c>
+      <c r="F81" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="s">
+        <v>419</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0</v>
+      </c>
+      <c r="F82" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A83" s="12" t="s">
+        <v>422</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E83" s="12">
+        <v>0</v>
+      </c>
+      <c r="F83" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A84" s="12" t="s">
+        <v>423</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E84" s="12">
+        <v>0</v>
+      </c>
+      <c r="F84" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A85" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D85" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E85" s="12">
+        <v>0</v>
+      </c>
+      <c r="F85" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A86" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E86" s="12">
+        <v>0</v>
+      </c>
+      <c r="F86" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E87" s="12">
+        <v>0</v>
+      </c>
+      <c r="F87" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>427</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E88" s="12">
+        <v>0</v>
+      </c>
+      <c r="F88" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E89" s="12">
+        <v>0</v>
+      </c>
+      <c r="F89" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A90" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E90" s="12">
+        <v>0</v>
+      </c>
+      <c r="F90" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E91" s="11">
+        <v>0</v>
+      </c>
+      <c r="F91" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A92" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E92" s="12">
+        <v>0</v>
+      </c>
+      <c r="F92" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A93" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E93" s="12">
+        <v>0</v>
+      </c>
+      <c r="F93" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A94" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B94" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E94" s="12">
+        <v>0</v>
+      </c>
+      <c r="F94" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A95" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E95" s="12">
+        <v>0</v>
+      </c>
+      <c r="F95" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0</v>
+      </c>
+      <c r="F96" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A97" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B97" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E97" s="12">
+        <v>0</v>
+      </c>
+      <c r="F97" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A98" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E98" s="12">
+        <v>0</v>
+      </c>
+      <c r="F98" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A99" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0</v>
+      </c>
+      <c r="F99" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A100" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E100" s="12">
+        <v>0</v>
+      </c>
+      <c r="F100" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A101" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0</v>
+      </c>
+      <c r="F101" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0</v>
+      </c>
+      <c r="F102" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A103" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E103" s="12">
+        <v>0</v>
+      </c>
+      <c r="F103" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E104" s="12">
+        <v>0</v>
+      </c>
+      <c r="F104" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A105" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E105" s="12">
+        <v>0</v>
+      </c>
+      <c r="F105" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A106" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E106" s="11">
+        <v>0</v>
+      </c>
+      <c r="F106" s="11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0</v>
+      </c>
+      <c r="F107" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A108" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0</v>
+      </c>
+      <c r="F108" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A109" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B109" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0</v>
+      </c>
+      <c r="F109" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A110" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0</v>
+      </c>
+      <c r="F110" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A111" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B111" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D111" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0</v>
+      </c>
+      <c r="F111" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A112" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0</v>
+      </c>
+      <c r="F112" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A113" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0</v>
+      </c>
+      <c r="F113" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A114" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E114" s="12">
+        <v>0</v>
+      </c>
+      <c r="F114" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A115" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E115" s="12">
+        <v>0</v>
+      </c>
+      <c r="F115" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A116" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0</v>
+      </c>
+      <c r="F116" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A117" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0</v>
+      </c>
+      <c r="F117" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A118" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E118" s="12">
+        <v>0</v>
+      </c>
+      <c r="F118" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A119" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E119" s="12">
+        <v>0</v>
+      </c>
+      <c r="F119" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A120" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E120" s="12">
+        <v>0</v>
+      </c>
+      <c r="F120" s="12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A123" s="13"/>
+      <c r="B123" s="13"/>
+      <c r="C123" s="13"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="13"/>
+      <c r="F123" s="13"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A124" s="13"/>
+      <c r="B124" s="13"/>
+      <c r="C124" s="13"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="13"/>
+      <c r="F124" s="13"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A125" s="13"/>
+      <c r="B125" s="13"/>
+      <c r="C125" s="13"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="13"/>
+      <c r="F125" s="13"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A126" s="13"/>
+      <c r="B126" s="13"/>
+      <c r="C126" s="13"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="13"/>
+      <c r="F126" s="13"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A127" s="13"/>
+      <c r="B127" s="13"/>
+      <c r="C127" s="13"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="13"/>
+      <c r="F127" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -60713,7 +63028,7 @@
       <c r="C5" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" t="s">
         <v>298</v>
       </c>
       <c r="E5">
@@ -60733,7 +63048,7 @@
       <c r="C6" t="s">
         <v>306</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" t="s">
         <v>298</v>
       </c>
       <c r="E6">
@@ -60753,7 +63068,7 @@
       <c r="C7" t="s">
         <v>307</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" t="s">
         <v>298</v>
       </c>
       <c r="E7">
@@ -60773,7 +63088,7 @@
       <c r="C8" t="s">
         <v>308</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" t="s">
         <v>298</v>
       </c>
       <c r="E8">
@@ -60793,7 +63108,7 @@
       <c r="C9" t="s">
         <v>309</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" t="s">
         <v>298</v>
       </c>
       <c r="E9">
@@ -60813,7 +63128,7 @@
       <c r="C10" t="s">
         <v>310</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" t="s">
         <v>299</v>
       </c>
       <c r="E10">
@@ -60833,7 +63148,7 @@
       <c r="C11" t="s">
         <v>311</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" t="s">
         <v>300</v>
       </c>
       <c r="E11">
@@ -61004,2862 +63319,2862 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="12" t="s">
+      <c r="A20" t="s">
         <v>294</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" t="s">
         <v>229</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" t="s">
         <v>234</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" t="s">
         <v>301</v>
       </c>
-      <c r="E20" s="12">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12">
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="12" t="s">
+      <c r="A21" t="s">
         <v>294</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" t="s">
         <v>229</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" t="s">
         <v>302</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="12">
+      <c r="E21">
         <v>2</v>
       </c>
-      <c r="F21" s="12">
+      <c r="F21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="12" t="s">
+      <c r="A22" t="s">
         <v>294</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" t="s">
         <v>229</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" t="s">
         <v>303</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" t="s">
         <v>298</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22">
         <v>3</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="12" t="s">
+      <c r="A23" t="s">
         <v>294</v>
       </c>
-      <c r="B23" s="12" t="s">
+      <c r="B23" t="s">
         <v>229</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="12" t="s">
+      <c r="D23" t="s">
         <v>298</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23">
         <v>4</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="12" t="s">
+      <c r="A24" t="s">
         <v>294</v>
       </c>
-      <c r="B24" s="12" t="s">
+      <c r="B24" t="s">
         <v>229</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" t="s">
         <v>299</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24">
         <v>5</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="12" t="s">
+      <c r="A25" t="s">
         <v>294</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" t="s">
         <v>229</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" t="s">
         <v>293</v>
       </c>
-      <c r="D25" s="12" t="s">
+      <c r="D25" t="s">
         <v>300</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25">
         <v>6</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25">
         <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="12" t="s">
+      <c r="A26" t="s">
         <v>294</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" t="s">
         <v>229</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" t="s">
         <v>234</v>
       </c>
-      <c r="D26" s="12" t="s">
+      <c r="D26" t="s">
         <v>320</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26">
         <v>8</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26">
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="12" t="s">
+      <c r="A27" t="s">
         <v>294</v>
       </c>
-      <c r="B27" s="12" t="s">
+      <c r="B27" t="s">
         <v>229</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="12" t="s">
+      <c r="D27" t="s">
         <v>299</v>
       </c>
-      <c r="E27" s="12">
+      <c r="E27">
         <v>11</v>
       </c>
-      <c r="F27" s="12">
+      <c r="F27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="12" t="s">
+      <c r="A28" t="s">
         <v>294</v>
       </c>
-      <c r="B28" s="12" t="s">
+      <c r="B28" t="s">
         <v>229</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" t="s">
         <v>321</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" t="s">
         <v>301</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28">
         <v>12</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="12" t="s">
+      <c r="A29" t="s">
         <v>294</v>
       </c>
-      <c r="B29" s="12" t="s">
+      <c r="B29" t="s">
         <v>229</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" t="s">
         <v>322</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D29" t="s">
         <v>298</v>
       </c>
-      <c r="E29" s="12">
-        <v>14</v>
-      </c>
-      <c r="F29" s="12">
+      <c r="E29">
+        <v>14</v>
+      </c>
+      <c r="F29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B30" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C30" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D30" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E30" s="11">
         <v>15</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="12" t="s">
+      <c r="A31" t="s">
         <v>295</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" t="s">
         <v>230</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D31" t="s">
         <v>299</v>
       </c>
-      <c r="E31" s="12">
-        <v>0</v>
-      </c>
-      <c r="F31" s="12">
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="12" t="s">
+      <c r="A32" t="s">
         <v>295</v>
       </c>
-      <c r="B32" s="12" t="s">
+      <c r="B32" t="s">
         <v>230</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" t="s">
         <v>119</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" t="s">
         <v>299</v>
       </c>
-      <c r="E32" s="12">
+      <c r="E32">
         <v>1</v>
       </c>
-      <c r="F32" s="12">
+      <c r="F32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="12" t="s">
+      <c r="A33" t="s">
         <v>295</v>
       </c>
-      <c r="B33" s="12" t="s">
+      <c r="B33" t="s">
         <v>230</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" t="s">
         <v>299</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33">
         <v>2</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="12" t="s">
+      <c r="A34" t="s">
         <v>295</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" t="s">
         <v>230</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" t="s">
         <v>299</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34">
         <v>3</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A35" s="12" t="s">
+      <c r="A35" t="s">
         <v>295</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" t="s">
         <v>230</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" t="s">
         <v>122</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D35" t="s">
         <v>299</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35">
         <v>4</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="12" t="s">
+      <c r="A36" t="s">
         <v>295</v>
       </c>
-      <c r="B36" s="12" t="s">
+      <c r="B36" t="s">
         <v>230</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" t="s">
         <v>123</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" t="s">
         <v>299</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36">
         <v>5</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="12" t="s">
+      <c r="A37" t="s">
         <v>295</v>
       </c>
-      <c r="B37" s="12" t="s">
+      <c r="B37" t="s">
         <v>230</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" t="s">
         <v>299</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37">
         <v>6</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="12" t="s">
+      <c r="A38" t="s">
         <v>295</v>
       </c>
-      <c r="B38" s="12" t="s">
+      <c r="B38" t="s">
         <v>230</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" t="s">
         <v>45</v>
       </c>
-      <c r="D38" s="12" t="s">
+      <c r="D38" t="s">
         <v>299</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38">
         <v>7</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="12" t="s">
+      <c r="A39" t="s">
         <v>295</v>
       </c>
-      <c r="B39" s="12" t="s">
+      <c r="B39" t="s">
         <v>230</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" t="s">
         <v>234</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D39" t="s">
         <v>320</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39">
         <v>8</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39">
         <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="12" t="s">
+      <c r="A40" t="s">
         <v>295</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" t="s">
         <v>230</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" t="s">
         <v>323</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" t="s">
         <v>324</v>
       </c>
-      <c r="E40" s="12">
+      <c r="E40">
         <v>11</v>
       </c>
-      <c r="F40" s="12">
+      <c r="F40">
         <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="C41" s="13" t="s">
+      <c r="C41" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="E41" s="13">
-        <v>14</v>
-      </c>
-      <c r="F41" s="13">
+      <c r="E41" s="11">
+        <v>14</v>
+      </c>
+      <c r="F41" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="12" t="s">
+      <c r="A42" t="s">
         <v>296</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" t="s">
         <v>232</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C42" t="s">
         <v>234</v>
       </c>
-      <c r="D42" s="12" t="s">
+      <c r="D42" t="s">
         <v>298</v>
       </c>
-      <c r="E42" s="12">
-        <v>0</v>
-      </c>
-      <c r="F42" s="12">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="12" t="s">
+      <c r="A43" t="s">
         <v>296</v>
       </c>
-      <c r="B43" s="12" t="s">
+      <c r="B43" t="s">
         <v>232</v>
       </c>
-      <c r="C43" s="12" t="s">
+      <c r="C43" t="s">
         <v>327</v>
       </c>
-      <c r="D43" s="12" t="s">
+      <c r="D43" t="s">
         <v>320</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43">
         <v>1</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="12" t="s">
+      <c r="A44" t="s">
         <v>296</v>
       </c>
-      <c r="B44" s="12" t="s">
+      <c r="B44" t="s">
         <v>232</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" t="s">
         <v>234</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" t="s">
         <v>298</v>
       </c>
-      <c r="E44" s="12">
+      <c r="E44">
         <v>4</v>
       </c>
-      <c r="F44" s="12">
+      <c r="F44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="12" t="s">
+      <c r="A45" t="s">
         <v>296</v>
       </c>
-      <c r="B45" s="12" t="s">
+      <c r="B45" t="s">
         <v>232</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" t="s">
         <v>328</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" t="s">
         <v>320</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45">
         <v>5</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45">
         <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A46" s="12" t="s">
+      <c r="A46" t="s">
         <v>296</v>
       </c>
-      <c r="B46" s="12" t="s">
+      <c r="B46" t="s">
         <v>232</v>
       </c>
-      <c r="C46" s="12" t="s">
+      <c r="C46" t="s">
         <v>234</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" t="s">
         <v>298</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46">
         <v>8</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="12" t="s">
+      <c r="A47" t="s">
         <v>296</v>
       </c>
-      <c r="B47" s="12" t="s">
+      <c r="B47" t="s">
         <v>232</v>
       </c>
-      <c r="C47" s="12" t="s">
+      <c r="C47" t="s">
         <v>329</v>
       </c>
-      <c r="D47" s="12" t="s">
+      <c r="D47" t="s">
         <v>320</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47">
         <v>9</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47">
         <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="12" t="s">
+      <c r="A48" t="s">
         <v>296</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" t="s">
         <v>232</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" t="s">
         <v>234</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" t="s">
         <v>298</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48">
         <v>12</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="B49" s="13" t="s">
+      <c r="B49" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="C49" s="13" t="s">
+      <c r="C49" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="D49" s="13" t="s">
+      <c r="D49" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E49" s="13">
-        <v>13</v>
-      </c>
-      <c r="F49" s="13">
+      <c r="E49" s="11">
+        <v>13</v>
+      </c>
+      <c r="F49" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="12" t="s">
+      <c r="A50" t="s">
         <v>297</v>
       </c>
-      <c r="B50" s="12" t="s">
+      <c r="B50" t="s">
         <v>233</v>
       </c>
-      <c r="C50" s="12" t="s">
+      <c r="C50" t="s">
         <v>234</v>
       </c>
-      <c r="D50" s="12" t="s">
+      <c r="D50" t="s">
         <v>298</v>
       </c>
-      <c r="E50" s="12">
-        <v>0</v>
-      </c>
-      <c r="F50" s="12">
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A51" s="12" t="s">
+      <c r="A51" t="s">
         <v>297</v>
       </c>
-      <c r="B51" s="12" t="s">
+      <c r="B51" t="s">
         <v>233</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" t="s">
         <v>337</v>
       </c>
-      <c r="D51" s="12" t="s">
+      <c r="D51" t="s">
         <v>320</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51">
         <v>1</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51">
         <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A52" s="12" t="s">
+      <c r="A52" t="s">
         <v>297</v>
       </c>
-      <c r="B52" s="12" t="s">
+      <c r="B52" t="s">
         <v>233</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" t="s">
         <v>234</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" t="s">
         <v>298</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52">
         <v>4</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="12" t="s">
+      <c r="A53" t="s">
         <v>297</v>
       </c>
-      <c r="B53" s="12" t="s">
+      <c r="B53" t="s">
         <v>233</v>
       </c>
-      <c r="C53" s="12" t="s">
+      <c r="C53" t="s">
         <v>338</v>
       </c>
-      <c r="D53" s="12" t="s">
+      <c r="D53" t="s">
         <v>320</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53">
         <v>5</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53">
         <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="12" t="s">
+      <c r="A54" t="s">
         <v>297</v>
       </c>
-      <c r="B54" s="12" t="s">
+      <c r="B54" t="s">
         <v>233</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C54" t="s">
         <v>234</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D54" t="s">
         <v>298</v>
       </c>
-      <c r="E54" s="12">
+      <c r="E54">
         <v>8</v>
       </c>
-      <c r="F54" s="12">
+      <c r="F54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="12" t="s">
+      <c r="A55" t="s">
         <v>297</v>
       </c>
-      <c r="B55" s="12" t="s">
+      <c r="B55" t="s">
         <v>233</v>
       </c>
-      <c r="C55" s="12" t="s">
+      <c r="C55" t="s">
         <v>339</v>
       </c>
-      <c r="D55" s="12" t="s">
+      <c r="D55" t="s">
         <v>320</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55">
         <v>9</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55">
         <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="12" t="s">
+      <c r="A56" t="s">
         <v>297</v>
       </c>
-      <c r="B56" s="12" t="s">
+      <c r="B56" t="s">
         <v>233</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" t="s">
         <v>234</v>
       </c>
-      <c r="D56" s="12" t="s">
+      <c r="D56" t="s">
         <v>298</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56">
         <v>12</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B57" s="13" t="s">
+      <c r="B57" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="C57" s="13" t="s">
+      <c r="C57" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="D57" s="13" t="s">
+      <c r="D57" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="E57" s="13">
-        <v>13</v>
-      </c>
-      <c r="F57" s="13">
+      <c r="E57" s="11">
+        <v>13</v>
+      </c>
+      <c r="F57" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="12" t="s">
+      <c r="A58" t="s">
         <v>331</v>
       </c>
-      <c r="B58" s="12" t="s">
+      <c r="B58" t="s">
         <v>235</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" t="s">
         <v>234</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" t="s">
         <v>320</v>
       </c>
-      <c r="E58" s="12">
-        <v>0</v>
-      </c>
-      <c r="F58" s="12">
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
         <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A59" s="12" t="s">
+      <c r="A59" t="s">
         <v>331</v>
       </c>
-      <c r="B59" s="12" t="s">
+      <c r="B59" t="s">
         <v>235</v>
       </c>
-      <c r="C59" s="12" t="s">
+      <c r="C59" t="s">
         <v>341</v>
       </c>
-      <c r="D59" s="12" t="s">
+      <c r="D59" t="s">
         <v>342</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59">
         <v>3</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59">
         <v>4</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="12" t="s">
+      <c r="A60" t="s">
         <v>331</v>
       </c>
-      <c r="B60" s="12" t="s">
+      <c r="B60" t="s">
         <v>235</v>
       </c>
-      <c r="C60" s="12" t="s">
+      <c r="C60" t="s">
         <v>62</v>
       </c>
-      <c r="D60" s="12" t="s">
+      <c r="D60" t="s">
         <v>298</v>
       </c>
-      <c r="E60" s="12">
+      <c r="E60">
         <v>7</v>
       </c>
-      <c r="F60" s="12">
+      <c r="F60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A61" s="12" t="s">
+      <c r="A61" t="s">
         <v>331</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="B61" t="s">
         <v>235</v>
       </c>
-      <c r="C61" s="12" t="s">
+      <c r="C61" t="s">
         <v>63</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" t="s">
         <v>298</v>
       </c>
-      <c r="E61" s="12">
+      <c r="E61">
         <v>8</v>
       </c>
-      <c r="F61" s="12">
+      <c r="F61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A62" s="12" t="s">
+      <c r="A62" t="s">
         <v>331</v>
       </c>
-      <c r="B62" s="12" t="s">
+      <c r="B62" t="s">
         <v>235</v>
       </c>
-      <c r="C62" s="12" t="s">
+      <c r="C62" t="s">
         <v>343</v>
       </c>
-      <c r="D62" s="12" t="s">
+      <c r="D62" t="s">
         <v>320</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62">
         <v>9</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62">
         <v>3</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A63" s="12" t="s">
+      <c r="A63" t="s">
         <v>331</v>
       </c>
-      <c r="B63" s="12" t="s">
+      <c r="B63" t="s">
         <v>235</v>
       </c>
-      <c r="C63" s="12" t="s">
+      <c r="C63" t="s">
         <v>344</v>
       </c>
-      <c r="D63" s="12" t="s">
+      <c r="D63" t="s">
         <v>320</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63">
         <v>12</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="B64" s="13" t="s">
+      <c r="B64" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D64" s="13" t="s">
+      <c r="D64" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E64" s="13">
+      <c r="E64" s="11">
         <v>15</v>
       </c>
-      <c r="F64" s="13">
+      <c r="F64" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="14" t="s">
+      <c r="A65" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="B65" s="14" t="s">
+      <c r="B65" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="C65" s="14" t="s">
+      <c r="C65" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="D65" s="14" t="s">
+      <c r="D65" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E65" s="14">
-        <v>0</v>
-      </c>
-      <c r="F65" s="14">
+      <c r="E65" s="12">
+        <v>0</v>
+      </c>
+      <c r="F65" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="12" t="s">
+      <c r="A66" t="s">
         <v>333</v>
       </c>
-      <c r="B66" s="12" t="s">
+      <c r="B66" t="s">
         <v>237</v>
       </c>
-      <c r="C66" s="12" t="s">
+      <c r="C66" t="s">
         <v>347</v>
       </c>
-      <c r="D66" s="12" t="s">
+      <c r="D66" t="s">
         <v>286</v>
       </c>
-      <c r="E66" s="12">
-        <v>0</v>
-      </c>
-      <c r="F66" s="12">
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
         <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="B67" s="13" t="s">
+      <c r="B67" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="C67" s="13" t="s">
+      <c r="C67" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D67" s="13" t="s">
+      <c r="D67" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E67" s="11">
         <v>8</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F67" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="12" t="s">
+      <c r="A68" t="s">
         <v>334</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B68" t="s">
         <v>348</v>
       </c>
-      <c r="C68" s="12" t="s">
+      <c r="C68" t="s">
         <v>349</v>
       </c>
-      <c r="D68" s="12" t="s">
+      <c r="D68" t="s">
         <v>350</v>
       </c>
-      <c r="E68" s="12">
-        <v>0</v>
-      </c>
-      <c r="F68" s="12">
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
         <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="12" t="s">
+      <c r="A69" t="s">
         <v>334</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B69" t="s">
         <v>348</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" t="s">
         <v>234</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="D69" t="s">
         <v>320</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69">
         <v>10</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69">
         <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="12" t="s">
+      <c r="A70" t="s">
         <v>334</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B70" t="s">
         <v>348</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C70" t="s">
         <v>102</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D70" t="s">
         <v>298</v>
       </c>
-      <c r="E70" s="12">
-        <v>13</v>
-      </c>
-      <c r="F70" s="12">
+      <c r="E70">
+        <v>13</v>
+      </c>
+      <c r="F70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="B71" s="13" t="s">
+      <c r="B71" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="C71" s="13" t="s">
+      <c r="C71" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D71" s="13" t="s">
+      <c r="D71" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E71" s="13">
-        <v>14</v>
-      </c>
-      <c r="F71" s="13">
+      <c r="E71" s="11">
+        <v>14</v>
+      </c>
+      <c r="F71" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="14" t="s">
+      <c r="A72" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="C72" s="14" t="s">
+      <c r="C72" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="D72" s="14" t="s">
+      <c r="D72" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E72" s="14">
-        <v>0</v>
-      </c>
-      <c r="F72" s="14">
+      <c r="E72" s="12">
+        <v>0</v>
+      </c>
+      <c r="F72" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="12" t="s">
+      <c r="A73" t="s">
         <v>354</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="B73" t="s">
         <v>241</v>
       </c>
-      <c r="C73" s="12" t="s">
+      <c r="C73" t="s">
         <v>355</v>
       </c>
-      <c r="D73" s="12" t="s">
+      <c r="D73" t="s">
         <v>286</v>
       </c>
-      <c r="E73" s="12">
-        <v>0</v>
-      </c>
-      <c r="F73" s="12">
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
         <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B74" s="13" t="s">
+      <c r="B74" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D74" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E74" s="11">
         <v>8</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F74" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="B75" s="14" t="s">
+      <c r="B75" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C75" s="14" t="s">
+      <c r="C75" s="12" t="s">
         <v>359</v>
       </c>
-      <c r="D75" s="14" t="s">
+      <c r="D75" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E75" s="14">
-        <v>0</v>
-      </c>
-      <c r="F75" s="14">
+      <c r="E75" s="12">
+        <v>0</v>
+      </c>
+      <c r="F75" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A76" s="12" t="s">
+      <c r="A76" t="s">
         <v>357</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="B76" t="s">
         <v>243</v>
       </c>
-      <c r="C76" s="12" t="s">
+      <c r="C76" t="s">
         <v>360</v>
       </c>
-      <c r="D76" s="12" t="s">
+      <c r="D76" t="s">
         <v>286</v>
       </c>
-      <c r="E76" s="12">
-        <v>0</v>
-      </c>
-      <c r="F76" s="12">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="B77" s="13" t="s">
+      <c r="B77" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C77" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D77" s="13" t="s">
+      <c r="D77" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E77" s="13">
+      <c r="E77" s="11">
         <v>8</v>
       </c>
-      <c r="F77" s="13">
+      <c r="F77" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A78" s="12" t="s">
+      <c r="A78" t="s">
         <v>368</v>
       </c>
-      <c r="B78" s="12" t="s">
+      <c r="B78" t="s">
         <v>361</v>
       </c>
-      <c r="C78" s="12" t="s">
+      <c r="C78" t="s">
         <v>362</v>
       </c>
-      <c r="D78" s="12" t="s">
+      <c r="D78" t="s">
         <v>350</v>
       </c>
-      <c r="E78" s="12">
-        <v>0</v>
-      </c>
-      <c r="F78" s="12">
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
         <v>10</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A79" s="12" t="s">
+      <c r="A79" t="s">
         <v>368</v>
       </c>
-      <c r="B79" s="12" t="s">
+      <c r="B79" t="s">
         <v>361</v>
       </c>
-      <c r="C79" s="12" t="s">
+      <c r="C79" t="s">
         <v>234</v>
       </c>
-      <c r="D79" s="12" t="s">
+      <c r="D79" t="s">
         <v>320</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79">
         <v>10</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A80" s="12" t="s">
+      <c r="A80" t="s">
         <v>368</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="B80" t="s">
         <v>361</v>
       </c>
-      <c r="C80" s="12" t="s">
+      <c r="C80" t="s">
         <v>115</v>
       </c>
-      <c r="D80" s="12" t="s">
+      <c r="D80" t="s">
         <v>298</v>
       </c>
-      <c r="E80" s="12">
-        <v>13</v>
-      </c>
-      <c r="F80" s="12">
+      <c r="E80">
+        <v>13</v>
+      </c>
+      <c r="F80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="B81" s="12" t="s">
+      <c r="B81" t="s">
         <v>361</v>
       </c>
-      <c r="C81" s="13" t="s">
+      <c r="C81" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D81" s="13" t="s">
+      <c r="D81" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E81" s="13">
-        <v>14</v>
-      </c>
-      <c r="F81" s="13">
+      <c r="E81" s="11">
+        <v>14</v>
+      </c>
+      <c r="F81" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A82" s="14" t="s">
+      <c r="A82" s="12" t="s">
         <v>369</v>
       </c>
-      <c r="B82" s="14" t="s">
+      <c r="B82" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="C82" s="14" t="s">
+      <c r="C82" s="12" t="s">
         <v>364</v>
       </c>
-      <c r="D82" s="14" t="s">
+      <c r="D82" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E82" s="14">
-        <v>0</v>
-      </c>
-      <c r="F82" s="14">
+      <c r="E82" s="12">
+        <v>0</v>
+      </c>
+      <c r="F82" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A83" s="12" t="s">
+      <c r="A83" t="s">
         <v>335</v>
       </c>
-      <c r="B83" s="12" t="s">
+      <c r="B83" t="s">
         <v>246</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C83" t="s">
         <v>365</v>
       </c>
-      <c r="D83" s="12" t="s">
+      <c r="D83" t="s">
         <v>286</v>
       </c>
-      <c r="E83" s="12">
-        <v>0</v>
-      </c>
-      <c r="F83" s="12">
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
         <v>8</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="B84" s="13" t="s">
+      <c r="B84" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D84" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E84" s="11">
         <v>8</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F84" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A85" s="14" t="s">
+      <c r="A85" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="B85" s="14" t="s">
+      <c r="B85" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="C85" s="14" t="s">
+      <c r="C85" s="12" t="s">
         <v>366</v>
       </c>
-      <c r="D85" s="14" t="s">
+      <c r="D85" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E85" s="14">
-        <v>0</v>
-      </c>
-      <c r="F85" s="14">
+      <c r="E85" s="12">
+        <v>0</v>
+      </c>
+      <c r="F85" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A86" s="12" t="s">
+      <c r="A86" t="s">
         <v>370</v>
       </c>
-      <c r="B86" s="12" t="s">
+      <c r="B86" t="s">
         <v>248</v>
       </c>
-      <c r="C86" s="12" t="s">
+      <c r="C86" t="s">
         <v>367</v>
       </c>
-      <c r="D86" s="12" t="s">
+      <c r="D86" t="s">
         <v>286</v>
       </c>
-      <c r="E86" s="12">
-        <v>0</v>
-      </c>
-      <c r="F86" s="12">
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
         <v>8</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="B87" s="13" t="s">
+      <c r="B87" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C87" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D87" s="13" t="s">
+      <c r="D87" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E87" s="11">
         <v>8</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F87" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A88" s="12" t="s">
+      <c r="A88" t="s">
         <v>413</v>
       </c>
-      <c r="B88" s="12" t="s">
+      <c r="B88" t="s">
         <v>371</v>
       </c>
-      <c r="C88" s="12" t="s">
+      <c r="C88" t="s">
         <v>377</v>
       </c>
-      <c r="D88" s="12" t="s">
+      <c r="D88" t="s">
         <v>350</v>
       </c>
-      <c r="E88" s="12">
-        <v>0</v>
-      </c>
-      <c r="F88" s="12">
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A89" s="12" t="s">
+      <c r="A89" t="s">
         <v>413</v>
       </c>
-      <c r="B89" s="12" t="s">
+      <c r="B89" t="s">
         <v>371</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C89" t="s">
         <v>234</v>
       </c>
-      <c r="D89" s="12" t="s">
+      <c r="D89" t="s">
         <v>320</v>
       </c>
-      <c r="E89" s="12">
+      <c r="E89">
         <v>10</v>
       </c>
-      <c r="F89" s="12">
+      <c r="F89">
         <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A90" s="12" t="s">
+      <c r="A90" t="s">
         <v>413</v>
       </c>
-      <c r="B90" s="12" t="s">
+      <c r="B90" t="s">
         <v>371</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C90" t="s">
         <v>153</v>
       </c>
-      <c r="D90" s="12" t="s">
+      <c r="D90" t="s">
         <v>298</v>
       </c>
-      <c r="E90" s="12">
-        <v>13</v>
-      </c>
-      <c r="F90" s="12">
+      <c r="E90">
+        <v>13</v>
+      </c>
+      <c r="F90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="11" t="s">
         <v>413</v>
       </c>
-      <c r="B91" s="13" t="s">
+      <c r="B91" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C91" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="D91" s="13" t="s">
+      <c r="D91" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E91" s="13">
-        <v>14</v>
-      </c>
-      <c r="F91" s="13">
+      <c r="E91" s="11">
+        <v>14</v>
+      </c>
+      <c r="F91" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="12" t="s">
         <v>251</v>
       </c>
-      <c r="C92" s="14" t="s">
+      <c r="C92" s="12" t="s">
         <v>379</v>
       </c>
-      <c r="D92" s="14" t="s">
+      <c r="D92" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E92" s="14">
-        <v>0</v>
-      </c>
-      <c r="F92" s="14">
+      <c r="E92" s="12">
+        <v>0</v>
+      </c>
+      <c r="F92" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A93" s="12" t="s">
+      <c r="A93" t="s">
         <v>415</v>
       </c>
-      <c r="B93" s="12" t="s">
+      <c r="B93" t="s">
         <v>252</v>
       </c>
-      <c r="C93" s="12" t="s">
+      <c r="C93" t="s">
         <v>380</v>
       </c>
-      <c r="D93" s="12" t="s">
+      <c r="D93" t="s">
         <v>286</v>
       </c>
-      <c r="E93" s="12">
-        <v>0</v>
-      </c>
-      <c r="F93" s="12">
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
         <v>8</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="B94" s="13" t="s">
+      <c r="B94" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C94" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D94" s="13" t="s">
+      <c r="D94" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E94" s="13">
+      <c r="E94" s="11">
         <v>8</v>
       </c>
-      <c r="F94" s="13">
+      <c r="F94" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A95" s="14" t="s">
+      <c r="A95" s="12" t="s">
         <v>416</v>
       </c>
-      <c r="B95" s="14" t="s">
+      <c r="B95" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="C95" s="14" t="s">
+      <c r="C95" s="12" t="s">
         <v>381</v>
       </c>
-      <c r="D95" s="14" t="s">
+      <c r="D95" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E95" s="14">
-        <v>0</v>
-      </c>
-      <c r="F95" s="14">
+      <c r="E95" s="12">
+        <v>0</v>
+      </c>
+      <c r="F95" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A96" s="12" t="s">
+      <c r="A96" t="s">
         <v>417</v>
       </c>
-      <c r="B96" s="12" t="s">
+      <c r="B96" t="s">
         <v>254</v>
       </c>
-      <c r="C96" s="12" t="s">
+      <c r="C96" t="s">
         <v>382</v>
       </c>
-      <c r="D96" s="12" t="s">
+      <c r="D96" t="s">
         <v>286</v>
       </c>
-      <c r="E96" s="12">
-        <v>0</v>
-      </c>
-      <c r="F96" s="12">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
         <v>8</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="B97" s="13" t="s">
+      <c r="B97" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C97" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D97" s="13" t="s">
+      <c r="D97" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E97" s="13">
+      <c r="E97" s="11">
         <v>8</v>
       </c>
-      <c r="F97" s="13">
+      <c r="F97" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A98" s="12" t="s">
+      <c r="A98" t="s">
         <v>418</v>
       </c>
-      <c r="B98" s="12" t="s">
+      <c r="B98" t="s">
         <v>372</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C98" t="s">
         <v>383</v>
       </c>
-      <c r="D98" s="12" t="s">
+      <c r="D98" t="s">
         <v>350</v>
       </c>
-      <c r="E98" s="12">
-        <v>0</v>
-      </c>
-      <c r="F98" s="12">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
         <v>10</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A99" s="12" t="s">
+      <c r="A99" t="s">
         <v>418</v>
       </c>
-      <c r="B99" s="12" t="s">
+      <c r="B99" t="s">
         <v>372</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C99" t="s">
         <v>234</v>
       </c>
-      <c r="D99" s="12" t="s">
+      <c r="D99" t="s">
         <v>320</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99">
         <v>10</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F99">
         <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A100" s="12" t="s">
+      <c r="A100" t="s">
         <v>418</v>
       </c>
-      <c r="B100" s="12" t="s">
+      <c r="B100" t="s">
         <v>372</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C100" t="s">
         <v>166</v>
       </c>
-      <c r="D100" s="12" t="s">
+      <c r="D100" t="s">
         <v>298</v>
       </c>
-      <c r="E100" s="12">
-        <v>13</v>
-      </c>
-      <c r="F100" s="12">
+      <c r="E100">
+        <v>13</v>
+      </c>
+      <c r="F100">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="B101" s="12" t="s">
+      <c r="B101" t="s">
         <v>372</v>
       </c>
-      <c r="C101" s="13" t="s">
+      <c r="C101" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="D101" s="13" t="s">
+      <c r="D101" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E101" s="13">
-        <v>14</v>
-      </c>
-      <c r="F101" s="13">
+      <c r="E101" s="11">
+        <v>14</v>
+      </c>
+      <c r="F101" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A102" s="14" t="s">
+      <c r="A102" s="12" t="s">
         <v>419</v>
       </c>
-      <c r="B102" s="14" t="s">
+      <c r="B102" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="C102" s="14" t="s">
+      <c r="C102" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E102" s="14">
-        <v>0</v>
-      </c>
-      <c r="F102" s="14">
+      <c r="E102" s="12">
+        <v>0</v>
+      </c>
+      <c r="F102" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A103" s="12" t="s">
+      <c r="A103" t="s">
         <v>422</v>
       </c>
-      <c r="B103" s="12" t="s">
+      <c r="B103" t="s">
         <v>257</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C103" t="s">
         <v>386</v>
       </c>
-      <c r="D103" s="12" t="s">
+      <c r="D103" t="s">
         <v>286</v>
       </c>
-      <c r="E103" s="12">
-        <v>0</v>
-      </c>
-      <c r="F103" s="12">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
         <v>8</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="B104" s="13" t="s">
+      <c r="B104" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="C104" s="13" t="s">
+      <c r="C104" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D104" s="13" t="s">
+      <c r="D104" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E104" s="13">
+      <c r="E104" s="11">
         <v>8</v>
       </c>
-      <c r="F104" s="13">
+      <c r="F104" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A105" s="14" t="s">
+      <c r="A105" s="12" t="s">
         <v>423</v>
       </c>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="C105" s="14" t="s">
+      <c r="C105" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="D105" s="14" t="s">
+      <c r="D105" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E105" s="14">
-        <v>0</v>
-      </c>
-      <c r="F105" s="14">
+      <c r="E105" s="12">
+        <v>0</v>
+      </c>
+      <c r="F105" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A106" s="12" t="s">
+      <c r="A106" t="s">
         <v>424</v>
       </c>
-      <c r="B106" s="12" t="s">
+      <c r="B106" t="s">
         <v>259</v>
       </c>
-      <c r="C106" s="12" t="s">
+      <c r="C106" t="s">
         <v>388</v>
       </c>
-      <c r="D106" s="12" t="s">
+      <c r="D106" t="s">
         <v>286</v>
       </c>
-      <c r="E106" s="12">
-        <v>0</v>
-      </c>
-      <c r="F106" s="12">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
         <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="B107" s="13" t="s">
+      <c r="B107" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C107" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D107" s="13" t="s">
+      <c r="D107" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E107" s="13">
+      <c r="E107" s="11">
         <v>8</v>
       </c>
-      <c r="F107" s="13">
+      <c r="F107" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A108" s="12" t="s">
+      <c r="A108" t="s">
         <v>425</v>
       </c>
-      <c r="B108" s="12" t="s">
+      <c r="B108" t="s">
         <v>373</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C108" t="s">
         <v>389</v>
       </c>
-      <c r="D108" s="12" t="s">
+      <c r="D108" t="s">
         <v>350</v>
       </c>
-      <c r="E108" s="12">
-        <v>0</v>
-      </c>
-      <c r="F108" s="12">
+      <c r="E108">
+        <v>0</v>
+      </c>
+      <c r="F108">
         <v>10</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A109" s="12" t="s">
+      <c r="A109" t="s">
         <v>425</v>
       </c>
-      <c r="B109" s="12" t="s">
+      <c r="B109" t="s">
         <v>373</v>
       </c>
-      <c r="C109" s="12" t="s">
+      <c r="C109" t="s">
         <v>234</v>
       </c>
-      <c r="D109" s="12" t="s">
+      <c r="D109" t="s">
         <v>320</v>
       </c>
-      <c r="E109" s="12">
+      <c r="E109">
         <v>10</v>
       </c>
-      <c r="F109" s="12">
+      <c r="F109">
         <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A110" s="12" t="s">
+      <c r="A110" t="s">
         <v>425</v>
       </c>
-      <c r="B110" s="12" t="s">
+      <c r="B110" t="s">
         <v>373</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C110" t="s">
         <v>179</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="D110" t="s">
         <v>298</v>
       </c>
-      <c r="E110" s="12">
-        <v>13</v>
-      </c>
-      <c r="F110" s="12">
+      <c r="E110">
+        <v>13</v>
+      </c>
+      <c r="F110">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="B111" s="13" t="s">
+      <c r="B111" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C111" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="D111" s="13" t="s">
+      <c r="D111" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E111" s="13">
-        <v>14</v>
-      </c>
-      <c r="F111" s="13">
+      <c r="E111" s="11">
+        <v>14</v>
+      </c>
+      <c r="F111" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A112" s="14" t="s">
+      <c r="A112" s="12" t="s">
         <v>426</v>
       </c>
-      <c r="B112" s="14" t="s">
+      <c r="B112" s="12" t="s">
         <v>261</v>
       </c>
-      <c r="C112" s="14" t="s">
+      <c r="C112" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="D112" s="14" t="s">
+      <c r="D112" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E112" s="14">
-        <v>0</v>
-      </c>
-      <c r="F112" s="14">
+      <c r="E112" s="12">
+        <v>0</v>
+      </c>
+      <c r="F112" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A113" s="12" t="s">
+      <c r="A113" t="s">
         <v>427</v>
       </c>
-      <c r="B113" s="12" t="s">
+      <c r="B113" t="s">
         <v>262</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C113" t="s">
         <v>392</v>
       </c>
-      <c r="D113" s="12" t="s">
+      <c r="D113" t="s">
         <v>286</v>
       </c>
-      <c r="E113" s="12">
-        <v>0</v>
-      </c>
-      <c r="F113" s="12">
+      <c r="E113">
+        <v>0</v>
+      </c>
+      <c r="F113">
         <v>8</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="B114" s="13" t="s">
+      <c r="B114" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C114" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D114" s="13" t="s">
+      <c r="D114" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E114" s="13">
+      <c r="E114" s="11">
         <v>8</v>
       </c>
-      <c r="F114" s="13">
+      <c r="F114" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A115" s="14" t="s">
+      <c r="A115" s="12" t="s">
         <v>420</v>
       </c>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="12" t="s">
         <v>263</v>
       </c>
-      <c r="C115" s="14" t="s">
+      <c r="C115" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="D115" s="14" t="s">
+      <c r="D115" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E115" s="14">
-        <v>0</v>
-      </c>
-      <c r="F115" s="14">
+      <c r="E115" s="12">
+        <v>0</v>
+      </c>
+      <c r="F115" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A116" s="12" t="s">
+      <c r="A116" t="s">
         <v>421</v>
       </c>
-      <c r="B116" s="12" t="s">
+      <c r="B116" t="s">
         <v>264</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C116" t="s">
         <v>394</v>
       </c>
-      <c r="D116" s="12" t="s">
+      <c r="D116" t="s">
         <v>286</v>
       </c>
-      <c r="E116" s="12">
-        <v>0</v>
-      </c>
-      <c r="F116" s="12">
+      <c r="E116">
+        <v>0</v>
+      </c>
+      <c r="F116">
         <v>8</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="B117" s="13" t="s">
+      <c r="B117" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="C117" s="13" t="s">
+      <c r="C117" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D117" s="13" t="s">
+      <c r="D117" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E117" s="13">
+      <c r="E117" s="11">
         <v>8</v>
       </c>
-      <c r="F117" s="13">
+      <c r="F117" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A118" s="12" t="s">
+      <c r="A118" t="s">
         <v>428</v>
       </c>
-      <c r="B118" s="12" t="s">
+      <c r="B118" t="s">
         <v>374</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C118" t="s">
         <v>395</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="D118" t="s">
         <v>350</v>
       </c>
-      <c r="E118" s="12">
-        <v>0</v>
-      </c>
-      <c r="F118" s="12">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
         <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A119" s="12" t="s">
+      <c r="A119" t="s">
         <v>428</v>
       </c>
-      <c r="B119" s="12" t="s">
+      <c r="B119" t="s">
         <v>374</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C119" t="s">
         <v>234</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="D119" t="s">
         <v>320</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E119">
         <v>10</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F119">
         <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A120" s="12" t="s">
+      <c r="A120" t="s">
         <v>428</v>
       </c>
-      <c r="B120" s="12" t="s">
+      <c r="B120" t="s">
         <v>374</v>
       </c>
-      <c r="C120" s="12" t="s">
+      <c r="C120" t="s">
         <v>192</v>
       </c>
-      <c r="D120" s="12" t="s">
+      <c r="D120" t="s">
         <v>298</v>
       </c>
-      <c r="E120" s="12">
-        <v>13</v>
-      </c>
-      <c r="F120" s="12">
+      <c r="E120">
+        <v>13</v>
+      </c>
+      <c r="F120">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="B121" s="12" t="s">
+      <c r="B121" t="s">
         <v>374</v>
       </c>
-      <c r="C121" s="13" t="s">
+      <c r="C121" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="D121" s="13" t="s">
+      <c r="D121" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E121" s="13">
-        <v>14</v>
-      </c>
-      <c r="F121" s="13">
+      <c r="E121" s="11">
+        <v>14</v>
+      </c>
+      <c r="F121" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A122" s="14" t="s">
+      <c r="A122" s="12" t="s">
         <v>429</v>
       </c>
-      <c r="B122" s="14" t="s">
+      <c r="B122" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="C122" s="14" t="s">
+      <c r="C122" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="D122" s="14" t="s">
+      <c r="D122" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E122" s="14">
-        <v>0</v>
-      </c>
-      <c r="F122" s="14">
+      <c r="E122" s="12">
+        <v>0</v>
+      </c>
+      <c r="F122" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A123" s="12" t="s">
+      <c r="A123" t="s">
         <v>430</v>
       </c>
-      <c r="B123" s="12" t="s">
+      <c r="B123" t="s">
         <v>267</v>
       </c>
-      <c r="C123" s="12" t="s">
+      <c r="C123" t="s">
         <v>398</v>
       </c>
-      <c r="D123" s="12" t="s">
+      <c r="D123" t="s">
         <v>286</v>
       </c>
-      <c r="E123" s="12">
-        <v>0</v>
-      </c>
-      <c r="F123" s="12">
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
         <v>8</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="B124" s="13" t="s">
+      <c r="B124" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="C124" s="13" t="s">
+      <c r="C124" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D124" s="13" t="s">
+      <c r="D124" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E124" s="13">
+      <c r="E124" s="11">
         <v>8</v>
       </c>
-      <c r="F124" s="13">
+      <c r="F124" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A125" s="14" t="s">
+      <c r="A125" s="12" t="s">
         <v>431</v>
       </c>
-      <c r="B125" s="14" t="s">
+      <c r="B125" s="12" t="s">
         <v>268</v>
       </c>
-      <c r="C125" s="14" t="s">
+      <c r="C125" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="D125" s="14" t="s">
+      <c r="D125" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E125" s="14">
-        <v>0</v>
-      </c>
-      <c r="F125" s="14">
+      <c r="E125" s="12">
+        <v>0</v>
+      </c>
+      <c r="F125" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A126" s="12" t="s">
+      <c r="A126" t="s">
         <v>432</v>
       </c>
-      <c r="B126" s="12" t="s">
+      <c r="B126" t="s">
         <v>269</v>
       </c>
-      <c r="C126" s="12" t="s">
+      <c r="C126" t="s">
         <v>400</v>
       </c>
-      <c r="D126" s="12" t="s">
+      <c r="D126" t="s">
         <v>286</v>
       </c>
-      <c r="E126" s="12">
-        <v>0</v>
-      </c>
-      <c r="F126" s="12">
+      <c r="E126">
+        <v>0</v>
+      </c>
+      <c r="F126">
         <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="B127" s="13" t="s">
+      <c r="B127" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C127" s="13" t="s">
+      <c r="C127" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D127" s="13" t="s">
+      <c r="D127" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E127" s="13">
+      <c r="E127" s="11">
         <v>8</v>
       </c>
-      <c r="F127" s="13">
+      <c r="F127" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A128" s="12" t="s">
+      <c r="A128" t="s">
         <v>433</v>
       </c>
-      <c r="B128" s="12" t="s">
+      <c r="B128" t="s">
         <v>375</v>
       </c>
-      <c r="C128" s="12" t="s">
+      <c r="C128" t="s">
         <v>401</v>
       </c>
-      <c r="D128" s="12" t="s">
+      <c r="D128" t="s">
         <v>350</v>
       </c>
-      <c r="E128" s="12">
-        <v>0</v>
-      </c>
-      <c r="F128" s="12">
+      <c r="E128">
+        <v>0</v>
+      </c>
+      <c r="F128">
         <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A129" s="12" t="s">
+      <c r="A129" t="s">
         <v>433</v>
       </c>
-      <c r="B129" s="12" t="s">
+      <c r="B129" t="s">
         <v>375</v>
       </c>
-      <c r="C129" s="12" t="s">
+      <c r="C129" t="s">
         <v>234</v>
       </c>
-      <c r="D129" s="12" t="s">
+      <c r="D129" t="s">
         <v>320</v>
       </c>
-      <c r="E129" s="12">
+      <c r="E129">
         <v>10</v>
       </c>
-      <c r="F129" s="12">
+      <c r="F129">
         <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A130" s="12" t="s">
+      <c r="A130" t="s">
         <v>433</v>
       </c>
-      <c r="B130" s="12" t="s">
+      <c r="B130" t="s">
         <v>375</v>
       </c>
-      <c r="C130" s="12" t="s">
+      <c r="C130" t="s">
         <v>205</v>
       </c>
-      <c r="D130" s="12" t="s">
+      <c r="D130" t="s">
         <v>298</v>
       </c>
-      <c r="E130" s="12">
-        <v>13</v>
-      </c>
-      <c r="F130" s="12">
+      <c r="E130">
+        <v>13</v>
+      </c>
+      <c r="F130">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="B131" s="13" t="s">
+      <c r="B131" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="C131" s="13" t="s">
+      <c r="C131" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="D131" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E131" s="13">
-        <v>14</v>
-      </c>
-      <c r="F131" s="13">
+      <c r="E131" s="11">
+        <v>14</v>
+      </c>
+      <c r="F131" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A132" s="14" t="s">
+      <c r="A132" s="12" t="s">
         <v>434</v>
       </c>
-      <c r="B132" s="14" t="s">
+      <c r="B132" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C132" s="14" t="s">
+      <c r="C132" s="12" t="s">
         <v>403</v>
       </c>
-      <c r="D132" s="14" t="s">
+      <c r="D132" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E132" s="14">
-        <v>0</v>
-      </c>
-      <c r="F132" s="14">
+      <c r="E132" s="12">
+        <v>0</v>
+      </c>
+      <c r="F132" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A133" s="12" t="s">
+      <c r="A133" t="s">
         <v>435</v>
       </c>
-      <c r="B133" s="12" t="s">
+      <c r="B133" t="s">
         <v>272</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C133" t="s">
         <v>404</v>
       </c>
-      <c r="D133" s="12" t="s">
+      <c r="D133" t="s">
         <v>286</v>
       </c>
-      <c r="E133" s="12">
-        <v>0</v>
-      </c>
-      <c r="F133" s="12">
+      <c r="E133">
+        <v>0</v>
+      </c>
+      <c r="F133">
         <v>8</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="B134" s="13" t="s">
+      <c r="B134" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C134" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D134" s="13" t="s">
+      <c r="D134" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E134" s="13">
+      <c r="E134" s="11">
         <v>8</v>
       </c>
-      <c r="F134" s="13">
+      <c r="F134" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A135" s="14" t="s">
+      <c r="A135" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="B135" s="14" t="s">
+      <c r="B135" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C135" s="14" t="s">
+      <c r="C135" s="12" t="s">
         <v>405</v>
       </c>
-      <c r="D135" s="14" t="s">
+      <c r="D135" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E135" s="14">
-        <v>0</v>
-      </c>
-      <c r="F135" s="14">
+      <c r="E135" s="12">
+        <v>0</v>
+      </c>
+      <c r="F135" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A136" s="12" t="s">
+      <c r="A136" t="s">
         <v>437</v>
       </c>
-      <c r="B136" s="12" t="s">
+      <c r="B136" t="s">
         <v>274</v>
       </c>
-      <c r="C136" s="12" t="s">
+      <c r="C136" t="s">
         <v>406</v>
       </c>
-      <c r="D136" s="12" t="s">
+      <c r="D136" t="s">
         <v>286</v>
       </c>
-      <c r="E136" s="12">
-        <v>0</v>
-      </c>
-      <c r="F136" s="12">
+      <c r="E136">
+        <v>0</v>
+      </c>
+      <c r="F136">
         <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="B137" s="13" t="s">
+      <c r="B137" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="C137" s="13" t="s">
+      <c r="C137" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="D137" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E137" s="13">
+      <c r="E137" s="11">
         <v>8</v>
       </c>
-      <c r="F137" s="13">
+      <c r="F137" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A138" s="12" t="s">
+      <c r="A138" t="s">
         <v>438</v>
       </c>
-      <c r="B138" s="12" t="s">
+      <c r="B138" t="s">
         <v>376</v>
       </c>
-      <c r="C138" s="12" t="s">
+      <c r="C138" t="s">
         <v>407</v>
       </c>
-      <c r="D138" s="12" t="s">
+      <c r="D138" t="s">
         <v>350</v>
       </c>
-      <c r="E138" s="12">
-        <v>0</v>
-      </c>
-      <c r="F138" s="12">
+      <c r="E138">
+        <v>0</v>
+      </c>
+      <c r="F138">
         <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A139" s="12" t="s">
+      <c r="A139" t="s">
         <v>438</v>
       </c>
-      <c r="B139" s="12" t="s">
+      <c r="B139" t="s">
         <v>376</v>
       </c>
-      <c r="C139" s="12" t="s">
+      <c r="C139" t="s">
         <v>234</v>
       </c>
-      <c r="D139" s="12" t="s">
+      <c r="D139" t="s">
         <v>320</v>
       </c>
-      <c r="E139" s="12">
+      <c r="E139">
         <v>10</v>
       </c>
-      <c r="F139" s="12">
+      <c r="F139">
         <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A140" s="12" t="s">
+      <c r="A140" t="s">
         <v>438</v>
       </c>
-      <c r="B140" s="12" t="s">
+      <c r="B140" t="s">
         <v>376</v>
       </c>
-      <c r="C140" s="12" t="s">
+      <c r="C140" t="s">
         <v>218</v>
       </c>
-      <c r="D140" s="12" t="s">
+      <c r="D140" t="s">
         <v>298</v>
       </c>
-      <c r="E140" s="12">
-        <v>13</v>
-      </c>
-      <c r="F140" s="12">
+      <c r="E140">
+        <v>13</v>
+      </c>
+      <c r="F140">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="B141" s="12" t="s">
+      <c r="B141" t="s">
         <v>376</v>
       </c>
-      <c r="C141" s="13" t="s">
+      <c r="C141" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="D141" s="13" t="s">
+      <c r="D141" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="E141" s="13">
-        <v>14</v>
-      </c>
-      <c r="F141" s="13">
+      <c r="E141" s="11">
+        <v>14</v>
+      </c>
+      <c r="F141" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A142" s="14" t="s">
+      <c r="A142" s="12" t="s">
         <v>439</v>
       </c>
-      <c r="B142" s="14" t="s">
+      <c r="B142" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="C142" s="14" t="s">
+      <c r="C142" s="12" t="s">
         <v>409</v>
       </c>
-      <c r="D142" s="14" t="s">
+      <c r="D142" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E142" s="14">
-        <v>0</v>
-      </c>
-      <c r="F142" s="14">
+      <c r="E142" s="12">
+        <v>0</v>
+      </c>
+      <c r="F142" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A143" s="12" t="s">
+      <c r="A143" t="s">
         <v>440</v>
       </c>
-      <c r="B143" s="12" t="s">
+      <c r="B143" t="s">
         <v>277</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C143" t="s">
         <v>410</v>
       </c>
-      <c r="D143" s="12" t="s">
+      <c r="D143" t="s">
         <v>286</v>
       </c>
-      <c r="E143" s="12">
-        <v>0</v>
-      </c>
-      <c r="F143" s="12">
+      <c r="E143">
+        <v>0</v>
+      </c>
+      <c r="F143">
         <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="B144" s="13" t="s">
+      <c r="B144" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="C144" s="13" t="s">
+      <c r="C144" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D144" s="13" t="s">
+      <c r="D144" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E144" s="13">
+      <c r="E144" s="11">
         <v>8</v>
       </c>
-      <c r="F144" s="13">
+      <c r="F144" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A145" s="14" t="s">
+      <c r="A145" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="B145" s="14" t="s">
+      <c r="B145" s="12" t="s">
         <v>278</v>
       </c>
-      <c r="C145" s="14" t="s">
+      <c r="C145" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="D145" s="14" t="s">
+      <c r="D145" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="E145" s="14">
-        <v>0</v>
-      </c>
-      <c r="F145" s="14">
+      <c r="E145" s="12">
+        <v>0</v>
+      </c>
+      <c r="F145" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A146" s="12" t="s">
+      <c r="A146" t="s">
         <v>442</v>
       </c>
-      <c r="B146" s="12" t="s">
+      <c r="B146" t="s">
         <v>279</v>
       </c>
-      <c r="C146" s="12" t="s">
+      <c r="C146" t="s">
         <v>412</v>
       </c>
-      <c r="D146" s="12" t="s">
+      <c r="D146" t="s">
         <v>286</v>
       </c>
-      <c r="E146" s="12">
-        <v>0</v>
-      </c>
-      <c r="F146" s="12">
+      <c r="E146">
+        <v>0</v>
+      </c>
+      <c r="F146">
         <v>8</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="B147" s="13" t="s">
+      <c r="B147" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="C147" s="13" t="s">
+      <c r="C147" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D147" s="13" t="s">
+      <c r="D147" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E147" s="13">
+      <c r="E147" s="11">
         <v>8</v>
       </c>
-      <c r="F147" s="13">
+      <c r="F147" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A148" s="14" t="s">
+      <c r="A148" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C148" s="14" t="s">
+      <c r="C148" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D148" s="14" t="s">
+      <c r="D148" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E148" s="14">
-        <v>0</v>
-      </c>
-      <c r="F148" s="14">
+      <c r="E148" s="12">
+        <v>0</v>
+      </c>
+      <c r="F148" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A149" s="14" t="s">
+      <c r="A149" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C149" s="14" t="s">
+      <c r="C149" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D149" s="14" t="s">
+      <c r="D149" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E149" s="14">
-        <v>0</v>
-      </c>
-      <c r="F149" s="14">
+      <c r="E149" s="12">
+        <v>0</v>
+      </c>
+      <c r="F149" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A150" s="14" t="s">
+      <c r="A150" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C150" s="14" t="s">
+      <c r="C150" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D150" s="14" t="s">
+      <c r="D150" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E150" s="14">
-        <v>0</v>
-      </c>
-      <c r="F150" s="14">
+      <c r="E150" s="12">
+        <v>0</v>
+      </c>
+      <c r="F150" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A151" s="14" t="s">
+      <c r="A151" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C151" s="14" t="s">
+      <c r="C151" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D151" s="14" t="s">
+      <c r="D151" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E151" s="14">
-        <v>0</v>
-      </c>
-      <c r="F151" s="14">
+      <c r="E151" s="12">
+        <v>0</v>
+      </c>
+      <c r="F151" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A152" s="14" t="s">
+      <c r="A152" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C152" s="14" t="s">
+      <c r="C152" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D152" s="14" t="s">
+      <c r="D152" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E152" s="14">
-        <v>0</v>
-      </c>
-      <c r="F152" s="14">
+      <c r="E152" s="12">
+        <v>0</v>
+      </c>
+      <c r="F152" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A153" s="14" t="s">
+      <c r="A153" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="B153" s="14" t="s">
+      <c r="B153" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C153" s="14" t="s">
+      <c r="C153" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D153" s="14" t="s">
+      <c r="D153" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E153" s="14">
-        <v>0</v>
-      </c>
-      <c r="F153" s="14">
+      <c r="E153" s="12">
+        <v>0</v>
+      </c>
+      <c r="F153" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A154" s="14" t="s">
+      <c r="A154" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C154" s="14" t="s">
+      <c r="C154" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D154" s="14" t="s">
+      <c r="D154" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E154" s="14">
-        <v>0</v>
-      </c>
-      <c r="F154" s="14">
+      <c r="E154" s="12">
+        <v>0</v>
+      </c>
+      <c r="F154" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A155" s="14" t="s">
+      <c r="A155" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C155" s="14" t="s">
+      <c r="C155" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D155" s="14" t="s">
+      <c r="D155" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E155" s="14">
-        <v>0</v>
-      </c>
-      <c r="F155" s="14">
+      <c r="E155" s="12">
+        <v>0</v>
+      </c>
+      <c r="F155" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A156" s="14" t="s">
+      <c r="A156" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="B156" s="14" t="s">
+      <c r="B156" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C156" s="14" t="s">
+      <c r="C156" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D156" s="14" t="s">
+      <c r="D156" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E156" s="14">
-        <v>0</v>
-      </c>
-      <c r="F156" s="14">
+      <c r="E156" s="12">
+        <v>0</v>
+      </c>
+      <c r="F156" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A157" s="14" t="s">
+      <c r="A157" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C157" s="14" t="s">
+      <c r="C157" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D157" s="14" t="s">
+      <c r="D157" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E157" s="14">
-        <v>0</v>
-      </c>
-      <c r="F157" s="14">
+      <c r="E157" s="12">
+        <v>0</v>
+      </c>
+      <c r="F157" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A158" s="14" t="s">
+      <c r="A158" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C158" s="14" t="s">
+      <c r="C158" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D158" s="14" t="s">
+      <c r="D158" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E158" s="14">
-        <v>0</v>
-      </c>
-      <c r="F158" s="14">
+      <c r="E158" s="12">
+        <v>0</v>
+      </c>
+      <c r="F158" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A159" s="14" t="s">
+      <c r="A159" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C159" s="14" t="s">
+      <c r="C159" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D159" s="14" t="s">
+      <c r="D159" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E159" s="14">
-        <v>0</v>
-      </c>
-      <c r="F159" s="14">
+      <c r="E159" s="12">
+        <v>0</v>
+      </c>
+      <c r="F159" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A160" s="14" t="s">
+      <c r="A160" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="B160" s="14" t="s">
+      <c r="B160" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C160" s="14" t="s">
+      <c r="C160" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D160" s="14" t="s">
+      <c r="D160" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E160" s="14">
-        <v>0</v>
-      </c>
-      <c r="F160" s="14">
+      <c r="E160" s="12">
+        <v>0</v>
+      </c>
+      <c r="F160" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A161" s="14" t="s">
+      <c r="A161" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="C161" s="14" t="s">
+      <c r="C161" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="D161" s="14" t="s">
+      <c r="D161" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="E161" s="14">
-        <v>0</v>
-      </c>
-      <c r="F161" s="14">
+      <c r="E161" s="12">
+        <v>0</v>
+      </c>
+      <c r="F161" s="12">
         <v>16</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A162" s="14" t="s">
+      <c r="A162" s="12" t="s">
         <v>459</v>
       </c>
-      <c r="B162" s="14" t="s">
+      <c r="B162" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="C162" s="14" t="s">
+      <c r="C162" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="D162" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="E162" s="14">
-        <v>0</v>
-      </c>
-      <c r="F162" s="14">
+      <c r="E162" s="12">
+        <v>0</v>
+      </c>
+      <c r="F162" s="12">
         <v>16</v>
       </c>
     </row>
@@ -63970,7 +66285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5805F86C-CF78-4085-9FDB-3AFD09FC2F8F}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>

--- a/Misc Stuff/Library Research/ADCs/AXX131X0X/Register Maps.xlsx
+++ b/Misc Stuff/Library Research/ADCs/AXX131X0X/Register Maps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\Danakil_KiCad_DB\Misc Stuff\Library Research\ADCs\AXX131X0X\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83EC067-34AE-4D00-B9AE-EA5A029F808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5D1ADA9-115F-4CCC-9B56-7470F7D175DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8533" uniqueCount="466">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9034" uniqueCount="469">
   <si>
     <t>Index</t>
   </si>
@@ -1445,6 +1445,15 @@
   <si>
     <t>0b00000</t>
   </si>
+  <si>
+    <t>0x4</t>
+  </si>
+  <si>
+    <t>0b0000</t>
+  </si>
+  <si>
+    <t>DO_DRDY3</t>
+  </si>
 </sst>
 </file>
 
@@ -1523,7 +1532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1549,11 +1558,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="37">
     <dxf>
       <fill>
         <patternFill>
@@ -1613,7 +1626,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC00000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1872,30 +1892,30 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E708213-93EE-4CDB-BD20-A4AB889AFE9C}" name="Table1" displayName="Table1" ref="C4:Q1028" totalsRowShown="0" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2E708213-93EE-4CDB-BD20-A4AB889AFE9C}" name="Table1" displayName="Table1" ref="C4:Q1028" totalsRowShown="0" dataDxfId="36">
   <autoFilter ref="C4:Q1028" xr:uid="{2E708213-93EE-4CDB-BD20-A4AB889AFE9C}"/>
   <tableColumns count="15">
-    <tableColumn id="1" xr3:uid="{8CFAB686-21E7-49D7-9979-4413155EC286}" name="Index" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{B97095EB-93E9-4A61-B1A3-026F0F638AB6}" name="Addr(0x)" dataDxfId="33">
+    <tableColumn id="1" xr3:uid="{8CFAB686-21E7-49D7-9979-4413155EC286}" name="Index" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{B97095EB-93E9-4A61-B1A3-026F0F638AB6}" name="Addr(0x)" dataDxfId="34">
       <calculatedColumnFormula>DEC2HEX(ROUNDDOWN((C5/16),1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{AC82C585-84E5-493D-AF9E-C2F720613C73}" name="Bit(0x)" dataDxfId="32">
+    <tableColumn id="3" xr3:uid="{AC82C585-84E5-493D-AF9E-C2F720613C73}" name="Bit(0x)" dataDxfId="33">
       <calculatedColumnFormula>DEC2HEX(15-MOD(C5,16),1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{BAF9B4D5-CC00-4146-A9C6-FBA36DC2F53B}" name="Bit(dec)" dataDxfId="31">
+    <tableColumn id="14" xr3:uid="{BAF9B4D5-CC00-4146-A9C6-FBA36DC2F53B}" name="Bit(dec)" dataDxfId="32">
       <calculatedColumnFormula>HEX2DEC(Table1[[#This Row],[Bit(0x)]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{0DE69B54-A489-4213-B71C-D6D5539DC70F}" name="Func m02" dataDxfId="30"/>
-    <tableColumn id="5" xr3:uid="{ECABEBAB-8FF9-4EC0-84C4-B66441A63DAF}" name="DefVal m02" dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{2FC9DF2A-E354-479D-A81C-388B2AE1AACF}" name="Func m03" dataDxfId="28"/>
-    <tableColumn id="7" xr3:uid="{E7B4F8BD-7591-4D6E-A507-1C66E540FEA7}" name="DefVal m03" dataDxfId="27"/>
-    <tableColumn id="8" xr3:uid="{DD139FBE-4F85-4256-BC10-62A867D8D717}" name="Func m04" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{D4D565B0-F34F-41B8-81C6-B2AED55B85FA}" name="DefVal m04" dataDxfId="25"/>
-    <tableColumn id="10" xr3:uid="{8153F824-116D-4266-9494-35E0CA6202A2}" name="Func m06" dataDxfId="24"/>
-    <tableColumn id="11" xr3:uid="{E11DCF6F-CADA-49A2-AE14-951A16EC8051}" name="DefVal m06" dataDxfId="23"/>
-    <tableColumn id="12" xr3:uid="{33462B6C-19FE-464D-BAF2-D0253F754616}" name="Func m08" dataDxfId="22"/>
-    <tableColumn id="13" xr3:uid="{E6686916-9519-4FAC-9FC7-CDA245BBC428}" name="DefVal m08" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{5B08775A-CB6B-41A7-975E-47497A0314F8}" name="Comment" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{0DE69B54-A489-4213-B71C-D6D5539DC70F}" name="Func m02" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{ECABEBAB-8FF9-4EC0-84C4-B66441A63DAF}" name="DefVal m02" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{2FC9DF2A-E354-479D-A81C-388B2AE1AACF}" name="Func m03" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{E7B4F8BD-7591-4D6E-A507-1C66E540FEA7}" name="DefVal m03" dataDxfId="28"/>
+    <tableColumn id="8" xr3:uid="{DD139FBE-4F85-4256-BC10-62A867D8D717}" name="Func m04" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{D4D565B0-F34F-41B8-81C6-B2AED55B85FA}" name="DefVal m04" dataDxfId="26"/>
+    <tableColumn id="10" xr3:uid="{8153F824-116D-4266-9494-35E0CA6202A2}" name="Func m06" dataDxfId="25"/>
+    <tableColumn id="11" xr3:uid="{E11DCF6F-CADA-49A2-AE14-951A16EC8051}" name="DefVal m06" dataDxfId="24"/>
+    <tableColumn id="12" xr3:uid="{33462B6C-19FE-464D-BAF2-D0253F754616}" name="Func m08" dataDxfId="23"/>
+    <tableColumn id="13" xr3:uid="{E6686916-9519-4FAC-9FC7-CDA245BBC428}" name="DefVal m08" dataDxfId="22"/>
+    <tableColumn id="15" xr3:uid="{5B08775A-CB6B-41A7-975E-47497A0314F8}" name="Comment" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1906,7 +1926,7 @@
   <autoFilter ref="E4:L69" xr:uid="{D3FFC413-DD66-4338-8568-E7D52F2E2DB9}"/>
   <tableColumns count="8">
     <tableColumn id="7" xr3:uid="{FF9BC458-3B38-4F49-B1A8-F095F4120C88}" name="Index"/>
-    <tableColumn id="1" xr3:uid="{FB6A5D01-9DED-4568-BB03-62D9EBE09AE3}" name="Address(0x)" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{FB6A5D01-9DED-4568-BB03-62D9EBE09AE3}" name="Address(0x)" dataDxfId="20">
       <calculatedColumnFormula>_xlfn.CONCAT("0x",DEC2HEX(Table2[[#This Row],[Index]],2))</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="2" xr3:uid="{E8D46C28-7AE3-40C4-A412-2E8F87CA8D32}" name="M02"/>
@@ -56706,45 +56726,45 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C5:Q84 I85:Q100 H85:H101 C85:F116 P101 I101:N116 Q101:Q116 C117:Q308 C309:N356 P309:Q356 C357:Q739 C740:N748 O740:O748 P740:Q756 C749:O756 C757:Q1028">
-    <cfRule type="containsText" dxfId="18" priority="5" operator="containsText" text="FB">
+    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="FB">
       <formula>NOT(ISERROR(SEARCH("FB",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:Q84 I85:Q100 H85:H101 C85:F116 P101 I101:N116 Q101:Q116 C117:Q308 C309:N356 P309:Q356 C357:Q739 O740 C740:N748 P740:Q756 C749:O756 C757:Q1028">
-    <cfRule type="expression" dxfId="17" priority="6">
+    <cfRule type="expression" dxfId="18" priority="6">
       <formula>IF($E5="0",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85:G100">
-    <cfRule type="expression" dxfId="16" priority="4">
+    <cfRule type="expression" dxfId="17" priority="4">
       <formula>IF($E85="0",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G85:G101">
-    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="FB">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="FB">
       <formula>NOT(ISERROR(SEARCH("FB",G85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:H116 O325:O356 G101">
-    <cfRule type="expression" dxfId="14" priority="10">
+    <cfRule type="expression" dxfId="15" priority="10">
       <formula>IF($E85="0",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G102:H116 O325:O356">
-    <cfRule type="containsText" dxfId="13" priority="9" operator="containsText" text="FB">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="FB">
       <formula>NOT(ISERROR(SEARCH("FB",G102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O101 O102:P116">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="FB">
+    <cfRule type="containsText" dxfId="13" priority="1" operator="containsText" text="FB">
       <formula>NOT(ISERROR(SEARCH("FB",O101)))</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="2">
+    <cfRule type="expression" dxfId="12" priority="2">
       <formula>IF($E85="0",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O741:O748">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="11" priority="14">
       <formula>IF($E740="0",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -57502,7 +57522,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I111">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
       <formula>E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -58257,7 +58277,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I111">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="notEqual">
       <formula>E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62090,7 +62110,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I2:I111">
-    <cfRule type="cellIs" dxfId="8" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="notEqual">
       <formula>E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -62102,8 +62122,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F13F9BB-FE8F-4153-88EF-F50526C428EA}">
   <dimension ref="A1:I120"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -64989,8 +65009,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I120">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="notEqual">
+  <conditionalFormatting sqref="I2:I999">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="notEqual">
       <formula>E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -65000,10 +65020,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54A76063-6B89-4C77-98DA-B795BA854866}">
-  <dimension ref="A1:I111"/>
+  <dimension ref="A1:I142"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="H126" sqref="H126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -65066,6 +65086,9 @@
       <c r="C3" t="s">
         <v>288</v>
       </c>
+      <c r="D3" t="s">
+        <v>466</v>
+      </c>
       <c r="E3">
         <v>4</v>
       </c>
@@ -65078,22 +65101,22 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="A4" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="11">
         <v>8</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="11">
         <v>8</v>
       </c>
       <c r="I4">
@@ -65102,650 +65125,3049 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>291</v>
+      </c>
+      <c r="B5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
       <c r="I5">
         <f>MOD(SUM(F$2:F4),16)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" t="s">
+        <v>228</v>
+      </c>
+      <c r="C6" t="s">
+        <v>306</v>
+      </c>
+      <c r="D6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
       <c r="I6">
         <f>MOD(SUM(F$2:F5),16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" t="s">
+        <v>228</v>
+      </c>
+      <c r="C7" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
       <c r="I7">
         <f>MOD(SUM(F$2:F6),16)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>308</v>
+      </c>
+      <c r="D8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
       <c r="I8">
         <f>MOD(SUM(F$2:F7),16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C9" t="s">
+        <v>309</v>
+      </c>
+      <c r="D9" t="s">
+        <v>298</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="I9">
         <f>MOD(SUM(F$2:F8),16)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" t="s">
+        <v>228</v>
+      </c>
+      <c r="C10" t="s">
+        <v>310</v>
+      </c>
+      <c r="D10" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="I10">
         <f>MOD(SUM(F$2:F9),16)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C11" t="s">
+        <v>311</v>
+      </c>
+      <c r="D11" t="s">
+        <v>300</v>
+      </c>
+      <c r="E11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
       <c r="I11">
         <f>MOD(SUM(F$2:F10),16)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D12" t="s">
+        <v>467</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>4</v>
+      </c>
       <c r="I12">
         <f>MOD(SUM(F$2:F11),16)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" t="s">
+        <v>228</v>
+      </c>
+      <c r="C13" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
       <c r="I13">
         <f>MOD(SUM(F$2:F12),16)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>291</v>
+      </c>
+      <c r="B14" t="s">
+        <v>228</v>
+      </c>
+      <c r="C14" t="s">
+        <v>464</v>
+      </c>
+      <c r="D14" t="s">
+        <v>298</v>
+      </c>
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
       <c r="I14">
         <f>MOD(SUM(F$2:F13),16)</f>
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B15" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" t="s">
+        <v>318</v>
+      </c>
+      <c r="D15" t="s">
+        <v>298</v>
+      </c>
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
       <c r="I15">
         <f>MOD(SUM(F$2:F14),16)</f>
-        <v>0</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E16" s="11">
+        <v>15</v>
+      </c>
+      <c r="F16" s="11">
+        <v>1</v>
+      </c>
       <c r="I16">
         <f>MOD(SUM(F$2:F15),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="9:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>294</v>
+      </c>
+      <c r="B17" t="s">
+        <v>229</v>
+      </c>
+      <c r="C17" t="s">
+        <v>234</v>
+      </c>
+      <c r="D17" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
       <c r="I17">
         <f>MOD(SUM(F$2:F16),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>294</v>
+      </c>
+      <c r="B18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C18" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
       <c r="I18">
         <f>MOD(SUM(F$2:F17),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="9:9" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>294</v>
+      </c>
+      <c r="B19" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" t="s">
+        <v>303</v>
+      </c>
+      <c r="D19" t="s">
+        <v>298</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
       <c r="I19">
         <f>MOD(SUM(F$2:F18),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="9:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>294</v>
+      </c>
+      <c r="B20" t="s">
+        <v>229</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
       <c r="I20">
         <f>MOD(SUM(F$2:F19),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="9:9" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>294</v>
+      </c>
+      <c r="B21" t="s">
+        <v>229</v>
+      </c>
+      <c r="C21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
       <c r="I21">
         <f>MOD(SUM(F$2:F20),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="9:9" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>294</v>
+      </c>
+      <c r="B22" t="s">
+        <v>229</v>
+      </c>
+      <c r="C22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D22" t="s">
+        <v>300</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
       <c r="I22">
         <f>MOD(SUM(F$2:F21),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="9:9" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>294</v>
+      </c>
+      <c r="B23" t="s">
+        <v>229</v>
+      </c>
+      <c r="C23" t="s">
+        <v>234</v>
+      </c>
+      <c r="D23" t="s">
+        <v>320</v>
+      </c>
+      <c r="E23">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
       <c r="I23">
         <f>MOD(SUM(F$2:F22),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>294</v>
+      </c>
+      <c r="B24" t="s">
+        <v>229</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>299</v>
+      </c>
+      <c r="E24">
+        <v>11</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
       <c r="I24">
         <f>MOD(SUM(F$2:F23),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="9:9" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>294</v>
+      </c>
+      <c r="B25" t="s">
+        <v>229</v>
+      </c>
+      <c r="C25" t="s">
+        <v>321</v>
+      </c>
+      <c r="D25" t="s">
+        <v>301</v>
+      </c>
+      <c r="E25">
+        <v>12</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
       <c r="I25">
         <f>MOD(SUM(F$2:F24),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="9:9" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>294</v>
+      </c>
+      <c r="B26" t="s">
+        <v>229</v>
+      </c>
+      <c r="C26" t="s">
+        <v>322</v>
+      </c>
+      <c r="D26" t="s">
+        <v>298</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
       <c r="I26">
         <f>MOD(SUM(F$2:F25),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="9:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" s="11">
+        <v>15</v>
+      </c>
+      <c r="F27" s="11">
+        <v>1</v>
+      </c>
       <c r="I27">
         <f>MOD(SUM(F$2:F26),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="9:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>295</v>
+      </c>
+      <c r="B28" t="s">
+        <v>230</v>
+      </c>
+      <c r="C28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" t="s">
+        <v>465</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
       <c r="I28">
         <f>MOD(SUM(F$2:F27),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>295</v>
+      </c>
+      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" t="s">
+        <v>299</v>
+      </c>
+      <c r="E29">
+        <v>4</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
       <c r="I29">
         <f>MOD(SUM(F$2:F28),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="9:9" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>295</v>
+      </c>
+      <c r="B30" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" t="s">
+        <v>299</v>
+      </c>
+      <c r="E30">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
       <c r="I30">
         <f>MOD(SUM(F$2:F29),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>295</v>
+      </c>
+      <c r="B31" t="s">
+        <v>230</v>
+      </c>
+      <c r="C31" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>299</v>
+      </c>
+      <c r="E31">
+        <v>6</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
       <c r="I31">
         <f>MOD(SUM(F$2:F30),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="9:9" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>295</v>
+      </c>
+      <c r="B32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>299</v>
+      </c>
+      <c r="E32">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
       <c r="I32">
         <f>MOD(SUM(F$2:F31),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="9:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>295</v>
+      </c>
+      <c r="B33" t="s">
+        <v>230</v>
+      </c>
+      <c r="C33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" t="s">
+        <v>320</v>
+      </c>
+      <c r="E33">
+        <v>8</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
       <c r="I33">
         <f>MOD(SUM(F$2:F32),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>295</v>
+      </c>
+      <c r="B34" t="s">
+        <v>230</v>
+      </c>
+      <c r="C34" t="s">
+        <v>323</v>
+      </c>
+      <c r="D34" t="s">
+        <v>324</v>
+      </c>
+      <c r="E34">
+        <v>11</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
       <c r="I34">
         <f>MOD(SUM(F$2:F33),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="9:9" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A35" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="E35" s="11">
+        <v>14</v>
+      </c>
+      <c r="F35" s="11">
+        <v>2</v>
+      </c>
       <c r="I35">
         <f>MOD(SUM(F$2:F34),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="9:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>296</v>
+      </c>
+      <c r="B36" t="s">
+        <v>232</v>
+      </c>
+      <c r="C36" t="s">
+        <v>234</v>
+      </c>
+      <c r="D36" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
       <c r="I36">
         <f>MOD(SUM(F$2:F35),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>296</v>
+      </c>
+      <c r="B37" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" t="s">
+        <v>327</v>
+      </c>
+      <c r="D37" t="s">
+        <v>320</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
       <c r="I37">
         <f>MOD(SUM(F$2:F36),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="9:9" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>296</v>
+      </c>
+      <c r="B38" t="s">
+        <v>232</v>
+      </c>
+      <c r="C38" t="s">
+        <v>234</v>
+      </c>
+      <c r="D38" t="s">
+        <v>298</v>
+      </c>
+      <c r="E38">
+        <v>4</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
       <c r="I38">
         <f>MOD(SUM(F$2:F37),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="9:9" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" t="s">
+        <v>232</v>
+      </c>
+      <c r="C39" t="s">
+        <v>328</v>
+      </c>
+      <c r="D39" t="s">
+        <v>320</v>
+      </c>
+      <c r="E39">
+        <v>5</v>
+      </c>
+      <c r="F39">
+        <v>3</v>
+      </c>
       <c r="I39">
         <f>MOD(SUM(F$2:F38),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="9:9" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B40" t="s">
+        <v>232</v>
+      </c>
+      <c r="C40" t="s">
+        <v>234</v>
+      </c>
+      <c r="D40" t="s">
+        <v>298</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
       <c r="I40">
         <f>MOD(SUM(F$2:F39),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>296</v>
+      </c>
+      <c r="B41" t="s">
+        <v>232</v>
+      </c>
+      <c r="C41" t="s">
+        <v>329</v>
+      </c>
+      <c r="D41" t="s">
+        <v>320</v>
+      </c>
+      <c r="E41">
+        <v>9</v>
+      </c>
+      <c r="F41">
+        <v>3</v>
+      </c>
       <c r="I41">
         <f>MOD(SUM(F$2:F40),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="9:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" t="s">
+        <v>234</v>
+      </c>
+      <c r="D42" t="s">
+        <v>298</v>
+      </c>
+      <c r="E42">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
       <c r="I42">
         <f>MOD(SUM(F$2:F41),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="9:9" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="E43" s="11">
+        <v>13</v>
+      </c>
+      <c r="F43" s="11">
+        <v>3</v>
+      </c>
       <c r="I43">
         <f>MOD(SUM(F$2:F42),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="9:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E44" s="12">
+        <v>0</v>
+      </c>
+      <c r="F44" s="12">
+        <v>16</v>
+      </c>
       <c r="I44">
         <f>MOD(SUM(F$2:F43),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>331</v>
+      </c>
+      <c r="B45" t="s">
+        <v>235</v>
+      </c>
+      <c r="C45" t="s">
+        <v>234</v>
+      </c>
+      <c r="D45" t="s">
+        <v>320</v>
+      </c>
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>3</v>
+      </c>
       <c r="I45">
         <f>MOD(SUM(F$2:F44),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" t="s">
+        <v>235</v>
+      </c>
+      <c r="C46" t="s">
+        <v>341</v>
+      </c>
+      <c r="D46" t="s">
+        <v>342</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
       <c r="I46">
         <f>MOD(SUM(F$2:F45),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="9:9" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>331</v>
+      </c>
+      <c r="B47" t="s">
+        <v>235</v>
+      </c>
+      <c r="C47" t="s">
+        <v>62</v>
+      </c>
+      <c r="D47" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47">
+        <v>7</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
       <c r="I47">
         <f>MOD(SUM(F$2:F46),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="9:9" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" t="s">
+        <v>235</v>
+      </c>
+      <c r="C48" t="s">
+        <v>63</v>
+      </c>
+      <c r="D48" t="s">
+        <v>298</v>
+      </c>
+      <c r="E48">
+        <v>8</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
       <c r="I48">
         <f>MOD(SUM(F$2:F47),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>331</v>
+      </c>
+      <c r="B49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C49" t="s">
+        <v>343</v>
+      </c>
+      <c r="D49" t="s">
+        <v>320</v>
+      </c>
+      <c r="E49">
+        <v>9</v>
+      </c>
+      <c r="F49">
+        <v>3</v>
+      </c>
       <c r="I49">
         <f>MOD(SUM(F$2:F48),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="9:9" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" t="s">
+        <v>344</v>
+      </c>
+      <c r="D50" t="s">
+        <v>320</v>
+      </c>
+      <c r="E50">
+        <v>12</v>
+      </c>
+      <c r="F50">
+        <v>3</v>
+      </c>
       <c r="I50">
         <f>MOD(SUM(F$2:F49),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="9:9" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A51" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E51" s="11">
+        <v>15</v>
+      </c>
+      <c r="F51" s="11">
+        <v>1</v>
+      </c>
       <c r="I51">
         <f>MOD(SUM(F$2:F50),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="9:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>345</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E52" s="12">
+        <v>0</v>
+      </c>
+      <c r="F52" s="12">
+        <v>16</v>
+      </c>
       <c r="I52">
         <f>MOD(SUM(F$2:F51),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>333</v>
+      </c>
+      <c r="B53" t="s">
+        <v>237</v>
+      </c>
+      <c r="C53" t="s">
+        <v>347</v>
+      </c>
+      <c r="D53" t="s">
+        <v>286</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
       <c r="I53">
         <f>MOD(SUM(F$2:F52),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A54" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E54" s="11">
+        <v>8</v>
+      </c>
+      <c r="F54" s="11">
+        <v>8</v>
+      </c>
       <c r="I54">
         <f>MOD(SUM(F$2:F53),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>334</v>
+      </c>
+      <c r="B55" t="s">
+        <v>348</v>
+      </c>
+      <c r="C55" t="s">
+        <v>349</v>
+      </c>
+      <c r="D55" t="s">
+        <v>350</v>
+      </c>
+      <c r="E55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>10</v>
+      </c>
       <c r="I55">
         <f>MOD(SUM(F$2:F54),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>334</v>
+      </c>
+      <c r="B56" t="s">
+        <v>348</v>
+      </c>
+      <c r="C56" t="s">
+        <v>234</v>
+      </c>
+      <c r="D56" t="s">
+        <v>320</v>
+      </c>
+      <c r="E56">
+        <v>10</v>
+      </c>
+      <c r="F56">
+        <v>3</v>
+      </c>
       <c r="I56">
         <f>MOD(SUM(F$2:F55),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="9:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>334</v>
+      </c>
+      <c r="B57" t="s">
+        <v>348</v>
+      </c>
+      <c r="C57" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" t="s">
+        <v>298</v>
+      </c>
+      <c r="E57">
+        <v>13</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
       <c r="I57">
         <f>MOD(SUM(F$2:F56),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="9:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A58" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E58" s="11">
+        <v>14</v>
+      </c>
+      <c r="F58" s="11">
+        <v>2</v>
+      </c>
       <c r="I58">
         <f>MOD(SUM(F$2:F57),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="9:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A59" s="12" t="s">
+        <v>352</v>
+      </c>
+      <c r="B59" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E59" s="12">
+        <v>0</v>
+      </c>
+      <c r="F59" s="12">
+        <v>16</v>
+      </c>
       <c r="I59">
         <f>MOD(SUM(F$2:F58),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>354</v>
+      </c>
+      <c r="B60" t="s">
+        <v>241</v>
+      </c>
+      <c r="C60" t="s">
+        <v>355</v>
+      </c>
+      <c r="D60" t="s">
+        <v>286</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>8</v>
+      </c>
       <c r="I60">
         <f>MOD(SUM(F$2:F59),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A61" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D61" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E61" s="11">
+        <v>8</v>
+      </c>
+      <c r="F61" s="11">
+        <v>8</v>
+      </c>
       <c r="I61">
         <f>MOD(SUM(F$2:F60),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A62" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C62" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E62" s="12">
+        <v>0</v>
+      </c>
+      <c r="F62" s="12">
+        <v>16</v>
+      </c>
       <c r="I62">
         <f>MOD(SUM(F$2:F61),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>357</v>
+      </c>
+      <c r="B63" t="s">
+        <v>243</v>
+      </c>
+      <c r="C63" t="s">
+        <v>360</v>
+      </c>
+      <c r="D63" t="s">
+        <v>286</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>8</v>
+      </c>
       <c r="I63">
         <f>MOD(SUM(F$2:F62),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A64" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E64" s="11">
+        <v>8</v>
+      </c>
+      <c r="F64" s="11">
+        <v>8</v>
+      </c>
       <c r="I64">
         <f>MOD(SUM(F$2:F63),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>368</v>
+      </c>
+      <c r="B65" t="s">
+        <v>361</v>
+      </c>
+      <c r="C65" t="s">
+        <v>362</v>
+      </c>
+      <c r="D65" t="s">
+        <v>350</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
       <c r="I65">
         <f>MOD(SUM(F$2:F64),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>368</v>
+      </c>
+      <c r="B66" t="s">
+        <v>361</v>
+      </c>
+      <c r="C66" t="s">
+        <v>234</v>
+      </c>
+      <c r="D66" t="s">
+        <v>320</v>
+      </c>
+      <c r="E66">
+        <v>10</v>
+      </c>
+      <c r="F66">
+        <v>3</v>
+      </c>
       <c r="I66">
         <f>MOD(SUM(F$2:F65),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="9:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>368</v>
+      </c>
+      <c r="B67" t="s">
+        <v>361</v>
+      </c>
+      <c r="C67" t="s">
+        <v>115</v>
+      </c>
+      <c r="D67" t="s">
+        <v>298</v>
+      </c>
+      <c r="E67">
+        <v>13</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
       <c r="I67">
         <f>MOD(SUM(F$2:F66),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="9:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A68" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="B68" t="s">
+        <v>361</v>
+      </c>
+      <c r="C68" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E68" s="11">
+        <v>14</v>
+      </c>
+      <c r="F68" s="11">
+        <v>2</v>
+      </c>
       <c r="I68">
         <f>MOD(SUM(F$2:F67),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="9:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A69" s="12" t="s">
+        <v>369</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E69" s="12">
+        <v>0</v>
+      </c>
+      <c r="F69" s="12">
+        <v>16</v>
+      </c>
       <c r="I69">
         <f>MOD(SUM(F$2:F68),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>335</v>
+      </c>
+      <c r="B70" t="s">
+        <v>246</v>
+      </c>
+      <c r="C70" t="s">
+        <v>365</v>
+      </c>
+      <c r="D70" t="s">
+        <v>286</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>8</v>
+      </c>
       <c r="I70">
         <f>MOD(SUM(F$2:F69),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A71" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D71" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E71" s="11">
+        <v>8</v>
+      </c>
+      <c r="F71" s="11">
+        <v>8</v>
+      </c>
       <c r="I71">
         <f>MOD(SUM(F$2:F70),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A72" s="12" t="s">
+        <v>336</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E72" s="12">
+        <v>0</v>
+      </c>
+      <c r="F72" s="12">
+        <v>16</v>
+      </c>
       <c r="I72">
         <f>MOD(SUM(F$2:F71),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>370</v>
+      </c>
+      <c r="B73" t="s">
+        <v>248</v>
+      </c>
+      <c r="C73" t="s">
+        <v>367</v>
+      </c>
+      <c r="D73" t="s">
+        <v>286</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
       <c r="I73">
         <f>MOD(SUM(F$2:F72),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A74" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E74" s="11">
+        <v>8</v>
+      </c>
+      <c r="F74" s="11">
+        <v>8</v>
+      </c>
       <c r="I74">
         <f>MOD(SUM(F$2:F73),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>413</v>
+      </c>
+      <c r="B75" t="s">
+        <v>371</v>
+      </c>
+      <c r="C75" t="s">
+        <v>377</v>
+      </c>
+      <c r="D75" t="s">
+        <v>350</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>10</v>
+      </c>
       <c r="I75">
         <f>MOD(SUM(F$2:F74),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>413</v>
+      </c>
+      <c r="B76" t="s">
+        <v>371</v>
+      </c>
+      <c r="C76" t="s">
+        <v>234</v>
+      </c>
+      <c r="D76" t="s">
+        <v>320</v>
+      </c>
+      <c r="E76">
+        <v>10</v>
+      </c>
+      <c r="F76">
+        <v>3</v>
+      </c>
       <c r="I76">
         <f>MOD(SUM(F$2:F75),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="9:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>413</v>
+      </c>
+      <c r="B77" t="s">
+        <v>371</v>
+      </c>
+      <c r="C77" t="s">
+        <v>153</v>
+      </c>
+      <c r="D77" t="s">
+        <v>298</v>
+      </c>
+      <c r="E77">
+        <v>13</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
       <c r="I77">
         <f>MOD(SUM(F$2:F76),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="9:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A78" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E78" s="11">
+        <v>14</v>
+      </c>
+      <c r="F78" s="11">
+        <v>2</v>
+      </c>
       <c r="I78">
         <f>MOD(SUM(F$2:F77),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="9:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A79" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>379</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E79" s="12">
+        <v>0</v>
+      </c>
+      <c r="F79" s="12">
+        <v>16</v>
+      </c>
       <c r="I79">
         <f>MOD(SUM(F$2:F78),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>415</v>
+      </c>
+      <c r="B80" t="s">
+        <v>252</v>
+      </c>
+      <c r="C80" t="s">
+        <v>380</v>
+      </c>
+      <c r="D80" t="s">
+        <v>286</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
       <c r="I80">
         <f>MOD(SUM(F$2:F79),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A81" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E81" s="11">
+        <v>8</v>
+      </c>
+      <c r="F81" s="11">
+        <v>8</v>
+      </c>
       <c r="I81">
         <f>MOD(SUM(F$2:F80),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A82" s="12" t="s">
+        <v>416</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>381</v>
+      </c>
+      <c r="D82" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E82" s="12">
+        <v>0</v>
+      </c>
+      <c r="F82" s="12">
+        <v>16</v>
+      </c>
       <c r="I82">
         <f>MOD(SUM(F$2:F81),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>417</v>
+      </c>
+      <c r="B83" t="s">
+        <v>254</v>
+      </c>
+      <c r="C83" t="s">
+        <v>382</v>
+      </c>
+      <c r="D83" t="s">
+        <v>286</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
       <c r="I83">
         <f>MOD(SUM(F$2:F82),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A84" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E84" s="11">
+        <v>8</v>
+      </c>
+      <c r="F84" s="11">
+        <v>8</v>
+      </c>
       <c r="I84">
         <f>MOD(SUM(F$2:F83),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A85" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B85" t="s">
+        <v>372</v>
+      </c>
+      <c r="C85" t="s">
+        <v>349</v>
+      </c>
+      <c r="D85" t="s">
+        <v>350</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>10</v>
+      </c>
       <c r="I85">
         <f>MOD(SUM(F$2:F84),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A86" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B86" t="s">
+        <v>372</v>
+      </c>
+      <c r="C86" t="s">
+        <v>234</v>
+      </c>
+      <c r="D86" t="s">
+        <v>320</v>
+      </c>
+      <c r="E86">
+        <v>10</v>
+      </c>
+      <c r="F86">
+        <v>3</v>
+      </c>
       <c r="I86">
         <f>MOD(SUM(F$2:F85),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="9:9" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A87" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="B87" t="s">
+        <v>372</v>
+      </c>
+      <c r="C87" t="s">
+        <v>102</v>
+      </c>
+      <c r="D87" t="s">
+        <v>298</v>
+      </c>
+      <c r="E87">
+        <v>13</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
       <c r="I87">
         <f>MOD(SUM(F$2:F86),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="9:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A88" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="E88" s="11">
+        <v>14</v>
+      </c>
+      <c r="F88" s="11">
+        <v>2</v>
+      </c>
       <c r="I88">
         <f>MOD(SUM(F$2:F87),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="9:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A89" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E89" s="12">
+        <v>0</v>
+      </c>
+      <c r="F89" s="12">
+        <v>16</v>
+      </c>
       <c r="I89">
         <f>MOD(SUM(F$2:F88),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A90" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="B90" t="s">
+        <v>257</v>
+      </c>
+      <c r="C90" t="s">
+        <v>355</v>
+      </c>
+      <c r="D90" t="s">
+        <v>286</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
       <c r="I90">
         <f>MOD(SUM(F$2:F89),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A91" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D91" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E91" s="11">
+        <v>8</v>
+      </c>
+      <c r="F91" s="11">
+        <v>8</v>
+      </c>
       <c r="I91">
         <f>MOD(SUM(F$2:F90),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A92" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>359</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>358</v>
+      </c>
+      <c r="E92" s="12">
+        <v>0</v>
+      </c>
+      <c r="F92" s="12">
+        <v>16</v>
+      </c>
       <c r="I92">
         <f>MOD(SUM(F$2:F91),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A93" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="B93" t="s">
+        <v>259</v>
+      </c>
+      <c r="C93" t="s">
+        <v>360</v>
+      </c>
+      <c r="D93" t="s">
+        <v>286</v>
+      </c>
+      <c r="E93">
+        <v>0</v>
+      </c>
+      <c r="F93">
+        <v>8</v>
+      </c>
       <c r="I93">
         <f>MOD(SUM(F$2:F92),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A94" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E94" s="11">
+        <v>8</v>
+      </c>
+      <c r="F94" s="11">
+        <v>8</v>
+      </c>
       <c r="I94">
         <f>MOD(SUM(F$2:F93),16)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="9:9" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A95" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E95" s="11">
+        <v>0</v>
+      </c>
+      <c r="F95" s="11">
+        <v>16</v>
+      </c>
       <c r="I95">
         <f>MOD(SUM(F$2:F94),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A96" s="12" t="s">
+        <v>426</v>
+      </c>
+      <c r="B96" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E96" s="12">
+        <v>0</v>
+      </c>
+      <c r="F96" s="12">
+        <v>16</v>
+      </c>
       <c r="I96">
         <f>MOD(SUM(F$2:F95),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>427</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E97" s="12">
+        <v>0</v>
+      </c>
+      <c r="F97" s="12">
+        <v>16</v>
+      </c>
       <c r="I97">
         <f>MOD(SUM(F$2:F96),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A98" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B98" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E98" s="12">
+        <v>0</v>
+      </c>
+      <c r="F98" s="12">
+        <v>16</v>
+      </c>
       <c r="I98">
         <f>MOD(SUM(F$2:F97),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A99" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="B99" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E99" s="12">
+        <v>0</v>
+      </c>
+      <c r="F99" s="12">
+        <v>16</v>
+      </c>
       <c r="I99">
         <f>MOD(SUM(F$2:F98),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A100" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="B100" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E100" s="11">
+        <v>0</v>
+      </c>
+      <c r="F100" s="11">
+        <v>16</v>
+      </c>
       <c r="I100">
         <f>MOD(SUM(F$2:F99),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A101" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D101" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E101" s="12">
+        <v>0</v>
+      </c>
+      <c r="F101" s="12">
+        <v>16</v>
+      </c>
       <c r="I101">
         <f>MOD(SUM(F$2:F100),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A102" s="12" t="s">
+        <v>430</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D102" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E102" s="12">
+        <v>0</v>
+      </c>
+      <c r="F102" s="12">
+        <v>16</v>
+      </c>
       <c r="I102">
         <f>MOD(SUM(F$2:F101),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A103" s="12" t="s">
+        <v>431</v>
+      </c>
+      <c r="B103" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D103" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E103" s="12">
+        <v>0</v>
+      </c>
+      <c r="F103" s="12">
+        <v>16</v>
+      </c>
       <c r="I103">
         <f>MOD(SUM(F$2:F102),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A104" s="12" t="s">
+        <v>432</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D104" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E104" s="12">
+        <v>0</v>
+      </c>
+      <c r="F104" s="12">
+        <v>16</v>
+      </c>
       <c r="I104">
         <f>MOD(SUM(F$2:F103),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A105" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D105" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E105" s="12">
+        <v>0</v>
+      </c>
+      <c r="F105" s="12">
+        <v>16</v>
+      </c>
       <c r="I105">
         <f>MOD(SUM(F$2:F104),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A106" s="12" t="s">
+        <v>434</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E106" s="12">
+        <v>0</v>
+      </c>
+      <c r="F106" s="12">
+        <v>16</v>
+      </c>
       <c r="I106">
         <f>MOD(SUM(F$2:F105),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A107" s="12" t="s">
+        <v>435</v>
+      </c>
+      <c r="B107" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E107" s="12">
+        <v>0</v>
+      </c>
+      <c r="F107" s="12">
+        <v>16</v>
+      </c>
       <c r="I107">
         <f>MOD(SUM(F$2:F106),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A108" s="12" t="s">
+        <v>436</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C108" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E108" s="12">
+        <v>0</v>
+      </c>
+      <c r="F108" s="12">
+        <v>16</v>
+      </c>
       <c r="I108">
         <f>MOD(SUM(F$2:F107),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A109" s="12" t="s">
+        <v>437</v>
+      </c>
+      <c r="B109" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E109" s="12">
+        <v>0</v>
+      </c>
+      <c r="F109" s="12">
+        <v>16</v>
+      </c>
       <c r="I109">
         <f>MOD(SUM(F$2:F108),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A110" s="12" t="s">
+        <v>438</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E110" s="12">
+        <v>0</v>
+      </c>
+      <c r="F110" s="12">
+        <v>16</v>
+      </c>
       <c r="I110">
         <f>MOD(SUM(F$2:F109),16)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="9:9" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A111" s="12" t="s">
+        <v>439</v>
+      </c>
+      <c r="B111" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E111" s="12">
+        <v>0</v>
+      </c>
+      <c r="F111" s="12">
+        <v>16</v>
+      </c>
       <c r="I111">
         <f>MOD(SUM(F$2:F110),16)</f>
         <v>0</v>
       </c>
     </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A112" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="B112" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E112" s="12">
+        <v>0</v>
+      </c>
+      <c r="F112" s="12">
+        <v>16</v>
+      </c>
+      <c r="I112">
+        <f>MOD(SUM(F$2:F111),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A113" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="B113" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E113" s="12">
+        <v>0</v>
+      </c>
+      <c r="F113" s="12">
+        <v>16</v>
+      </c>
+      <c r="I113">
+        <f>MOD(SUM(F$2:F112),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A114" s="12" t="s">
+        <v>442</v>
+      </c>
+      <c r="B114" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E114" s="12">
+        <v>0</v>
+      </c>
+      <c r="F114" s="12">
+        <v>16</v>
+      </c>
+      <c r="I114">
+        <f>MOD(SUM(F$2:F113),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A115" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="B115" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E115" s="11">
+        <v>0</v>
+      </c>
+      <c r="F115" s="11">
+        <v>16</v>
+      </c>
+      <c r="I115">
+        <f>MOD(SUM(F$2:F114),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A116" s="12" t="s">
+        <v>444</v>
+      </c>
+      <c r="B116" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E116" s="12">
+        <v>0</v>
+      </c>
+      <c r="F116" s="12">
+        <v>16</v>
+      </c>
+      <c r="I116">
+        <f>MOD(SUM(F$2:F115),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A117" s="12" t="s">
+        <v>445</v>
+      </c>
+      <c r="B117" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E117" s="12">
+        <v>0</v>
+      </c>
+      <c r="F117" s="12">
+        <v>16</v>
+      </c>
+      <c r="I117">
+        <f>MOD(SUM(F$2:F116),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A118" s="12" t="s">
+        <v>446</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C118" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D118" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E118" s="12">
+        <v>0</v>
+      </c>
+      <c r="F118" s="12">
+        <v>16</v>
+      </c>
+      <c r="I118">
+        <f>MOD(SUM(F$2:F117),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A119" s="12" t="s">
+        <v>447</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E119" s="12">
+        <v>0</v>
+      </c>
+      <c r="F119" s="12">
+        <v>16</v>
+      </c>
+      <c r="I119">
+        <f>MOD(SUM(F$2:F118),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A120" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E120" s="12">
+        <v>0</v>
+      </c>
+      <c r="F120" s="12">
+        <v>16</v>
+      </c>
+      <c r="I120">
+        <f>MOD(SUM(F$2:F119),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A121" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E121" s="12">
+        <v>0</v>
+      </c>
+      <c r="F121" s="12">
+        <v>16</v>
+      </c>
+      <c r="I121">
+        <f>MOD(SUM(F$2:F120),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A122" s="12" t="s">
+        <v>450</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E122" s="12">
+        <v>0</v>
+      </c>
+      <c r="F122" s="12">
+        <v>16</v>
+      </c>
+      <c r="I122">
+        <f>MOD(SUM(F$2:F121),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A123" s="12" t="s">
+        <v>451</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D123" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E123" s="12">
+        <v>0</v>
+      </c>
+      <c r="F123" s="12">
+        <v>16</v>
+      </c>
+      <c r="I123">
+        <f>MOD(SUM(F$2:F122),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A124" s="12" t="s">
+        <v>452</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E124" s="12">
+        <v>0</v>
+      </c>
+      <c r="F124" s="12">
+        <v>16</v>
+      </c>
+      <c r="I124">
+        <f>MOD(SUM(F$2:F123),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A125" s="12" t="s">
+        <v>453</v>
+      </c>
+      <c r="B125" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="C125" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="E125" s="12">
+        <v>0</v>
+      </c>
+      <c r="F125" s="12">
+        <v>16</v>
+      </c>
+      <c r="I125">
+        <f>MOD(SUM(F$2:F124),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A126" s="12" t="s">
+        <v>454</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E126" s="12">
+        <v>0</v>
+      </c>
+      <c r="F126" s="12">
+        <v>16</v>
+      </c>
+      <c r="I126">
+        <f>MOD(SUM(F$2:F125),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A127" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="B127" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E127" s="12">
+        <v>0</v>
+      </c>
+      <c r="F127" s="12">
+        <v>16</v>
+      </c>
+      <c r="I127">
+        <f>MOD(SUM(F$2:F126),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A128" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B128" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="D128" s="12" t="s">
+        <v>346</v>
+      </c>
+      <c r="E128" s="12">
+        <v>0</v>
+      </c>
+      <c r="F128" s="12">
+        <v>16</v>
+      </c>
+      <c r="I128">
+        <f>MOD(SUM(F$2:F127),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A129" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B129" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="D129" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E129" s="12">
+        <v>0</v>
+      </c>
+      <c r="F129" s="12">
+        <v>16</v>
+      </c>
+      <c r="I129">
+        <f>MOD(SUM(F$2:F128),16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A138" s="16"/>
+      <c r="B138" s="16"/>
+      <c r="C138" s="16"/>
+      <c r="D138" s="16"/>
+      <c r="E138" s="16"/>
+      <c r="F138" s="16"/>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A139" s="16"/>
+      <c r="B139" s="16"/>
+      <c r="C139" s="16"/>
+      <c r="D139" s="16"/>
+      <c r="E139" s="16"/>
+      <c r="F139" s="16"/>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A140" s="16"/>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A141" s="16"/>
+      <c r="B141" s="16"/>
+      <c r="C141" s="16"/>
+      <c r="D141" s="16"/>
+      <c r="E141" s="16"/>
+      <c r="F141" s="16"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A142" s="16"/>
+      <c r="B142" s="16"/>
+      <c r="C142" s="16"/>
+      <c r="D142" s="16"/>
+      <c r="E142" s="16"/>
+      <c r="F142" s="16"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="I2:I111">
-    <cfRule type="cellIs" dxfId="6" priority="1" operator="notEqual">
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I2:I999">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="notEqual">
       <formula>E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -66500,7 +68922,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I111">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="notEqual">
       <formula>E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -70409,7 +72831,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="I2:I162">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="notEqual">
       <formula>E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -71164,7 +73586,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I111">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="notEqual">
       <formula>E2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -71919,7 +74341,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="I2:I111">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="6" priority="1" operator="notEqual">
       <formula>E2</formula>
     </cfRule>
   </conditionalFormatting>
